--- a/Review Journal.xlsx
+++ b/Review Journal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,6069 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a comparative study and systematic analysis of xai models and their applications in healthcare</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gupta J.; Seeja K.R.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Archives of Computational Methods in Engineering</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Artificial intelligence technologies such as machine learning and deep learning employ techniques to anticipate results more effectively without human involvement. Since AI models are viewed as opaque models, their application in healthcare is still restricted. Explainable artificial intelligence (XAI) has been designed to increase the use of artificial intelligence (AI) algorithms in the healthcare sector by increasing trust in the model's predictions and explaining how they are developed. The aim of this article is to critically review, compare, and summarize existing research and to find new research possibilities of XAI for applications in healthcare. This study is conducted by finding articles related to XAI in biological and healthcare domains from the PubMed, Science Direct, and Web of Science databases using the PRISMA method. A comparative study of the state-of-the-art XAI techniques to evaluate its applications in healthcare has also been done using an experimental demonstration on the Diabetes dataset. XAI techniques, namely LIME, SHAP, PDP, and decision tree, were used to explain how various input attributes contributed to the outcome of the model. This study found that the explanations provided by these models are not easily understandable for different users of the model, like doctors and patients, and need expertise. This study found that the potential of XAI in the medical domain is high as it increases trust in the AI model. This survey will motivate the researchers to build more XAI techniques that provide user-friendly explanations, especially for the less explored areas of medical data, such as biomedical signals and biomedical text. © The Author(s) under exclusive licence to International Center for Numerical Methods in Engineering (CIMNE) 2024.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1007/s11831-024-10103-9</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Article in press</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a comprehensive evaluation of explainable artificial intelligence techniques in stroke diagnosis: a systematic review</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gurmessa D.K.; Jimma W.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cogent Engineering</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Stroke presents a formidable global health threat, carrying significant risks and challenges. Timely intervention and improved outcomes hinge on the integration of Explainable Artificial Intelligence (XAI) into medical decision-making. XAI, an evolving field, enhances the transparency of conventional Artificial Intelligence (AI) models. This systematic review addresses key research questions: How is XAI applied in the context of stroke diagnosis? To what extent can XAI elucidate the outputs of machine learning models? Which systematic evaluation methodologies are employed, and what categories of explainable approaches (Model Explanation, Outcome Explanation, Model Inspection) are prevalent We conducted this review following the Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA) guidelines. Our search encompassed five databases: Google Scholar, PubMed, IEEE Xplore, ScienceDirect, and Scopus, spanning studies published between January 1988 and June 2023. Various combinations of search terms, including “stroke,” “explainable,” “interpretable,” “machine learning,” “artificial intelligence,” and “XAI,” were employed. This study identified 17 primary studies employing explainable machine learning techniques for stroke diagnosis. Among these studies, 94.1% incorporated XAI for model visualization, and 47.06% employed model inspection. It is noteworthy that none of the studies employed evaluation metrics such as D, R, F, or S to assess the performance of their XAI systems. Furthermore, none evaluated human confidence in utilizing XAI for stroke diagnosis. Explainable Artificial Intelligence serves as a vital tool in enhancing trust among both patients and healthcare providers in the diagnostic process. The effective implementation of systematic evaluation metrics is crucial for harnessing the potential of XAI in improving stroke diagnosis. © 2023 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.1080/23311916.2023.2273088</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a mental models approach for defining explainable artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Merry M.; Riddle P.; Warren J.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BMC Medical Informatics and Decision Making</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Background: Wide-ranging concerns exist regarding the use of black-box modelling methods in sensitive contexts such as healthcare. Despite performance gains and hype, uptake of artificial intelligence (AI) is hindered by these concerns. Explainable AI is thought to help alleviate these concerns. However, existing definitions for explainable are not forming a solid foundation for this work. Methods: We critique recent reviews on the literature regarding: the agency of an AI within a team; mental models, especially as they apply to healthcare, and the practical aspects of their elicitation; and existing and current definitions of explainability, especially from the perspective of AI researchers. On the basis of this literature, we create a new definition of explainable, and supporting terms, providing definitions that can be objectively evaluated. Finally, we apply the new definition of explainable to three existing models, demonstrating how it can apply to previous research, and providing guidance for future research on the basis of this definition. Results: Existing definitions of explanation are premised on global applicability and don’t address the question ‘understandable by whom?’. Eliciting mental models can be likened to creating explainable AI if one considers the AI as a member of a team. On this basis, we define explainability in terms of the context of the model, comprising the purpose, audience, and language of the model and explanation. As examples, this definition is applied to regression models, neural nets, and human mental models in operating-room teams. Conclusions: Existing definitions of explanation have limitations for ensuring that the concerns for practical applications are resolved. Defining explainability in terms of the context of their application forces evaluations to be aligned with the practical goals of the model. Further, it will allow researchers to explicitly distinguish between explanations for technical and lay audiences, allowing different evaluations to be applied to each. © 2021, The Author(s).</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.1186/s12911-021-01703-7</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a mobile app that addresses interpretability challenges in machine learning-based diabetes predictions: survey-based user study</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hendawi, R; Li, J; Roy, S</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>JMIR FORMATIVE RESEARCH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Background: Machine learning approaches, including deep learning, have demonstrated remarkable effectiveness in the diagnosis and prediction of diabetes. However, these approaches often operate as opaque black boxes, leaving health care providers in the dark about the reasoning behind predictions. This opacity poses a barrier to the widespread adoption of machine learning in diabetes and health care, leading to confusion and eroding trust.Objective: This study aimed to address this critical issue by developing and evaluating an explainable artificial intelligence (AI) platform, XAI4Diabetes, designed to empower health care professionals with a clear understanding of AI-generated predictions and recommendations for diabetes care. XAI4Diabetes not only delivers diabetes risk predictions but also furnishes easily interpretable explanations for complex machine learning models and their outcomes.Methods: XAI4Diabetes features a versatile multimodule explanation framework that leverages machine learning, knowledge graphs, and ontologies. The platform comprises the following four essential modules: (1) knowledge base, (2) knowledge matching, (3) prediction, and (4) interpretation. By harnessing AI techniques, XAI4Diabetes forecasts diabetes risk and provides valuable insights into the prediction process and outcomes. A structured, survey-based user study assessed the app's usability and influence on participants' comprehension of machine learning predictions in real-world patient scenarios.Results: A prototype mobile app was meticulously developed and subjected to thorough usability studies and satisfaction surveys. The evaluation study findings underscore the substantial improvement in medical professionals' comprehension of key aspects, including the (1) diabetes prediction process, (2) data sets used for model training, (3) data features used, and (4) relative significance of different features in prediction outcomes. Most participants reported heightened understanding of and trust in AI predictions following their use of XAI4Diabetes. The satisfaction survey results further revealed a high level of overall user satisfaction with the tool.Conclusions: This study introduces XAI4Diabetes, a versatile multi-model explainable prediction platform tailored to diabetes care. By enabling transparent diabetes risk predictions and delivering interpretable insights, XAI4Diabetes empowers health care professionals to comprehend the AI-driven decision-making process, thereby fostering transparency and trust. These advancements hold the potential to mitigate biases and facilitate the broader integration of AI in diabetes care.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.2196/50328</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>a mobile app that addresses interpretability challenges in machine learning–based diabetes predictions: survey-based user study</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hendawi R.; Li J.; Roy S.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>JMIR Formative Research</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Background: Machine learning approaches, including deep learning, have demonstrated remarkable effectiveness in the diagnosis and prediction of diabetes. However, these approaches often operate as opaque black boxes, leaving health care providers in the dark about the reasoning behind predictions. This opacity poses a barrier to the widespread adoption of machine learning in diabetes and health care, leading to confusion and eroding trust. Objective: This study aimed to address this critical issue by developing and evaluating an explainable artificial intelligence (AI) platform, XAI4Diabetes, designed to empower health care professionals with a clear understanding of AI-generated predictions and recommendations for diabetes care. XAI4Diabetes not only delivers diabetes risk predictions but also furnishes easily interpretable explanations for complex machine learning models and their outcomes. Methods: XAI4Diabetes features a versatile multimodule explanation framework that leverages machine learning, knowledge graphs, and ontologies. The platform comprises the following four essential modules: (1) knowledge base, (2) knowledge matching, (3) prediction, and (4) interpretation. By harnessing AI techniques, XAI4Diabetes forecasts diabetes risk and provides valuable insights into the prediction process and outcomes. A structured, survey-based user study assessed the app’s usability and influence on participants’ comprehension of machine learning predictions in real-world patient scenarios. Results: A prototype mobile app was meticulously developed and subjected to thorough usability studies and satisfaction surveys. The evaluation study findings underscore the substantial improvement in medical professionals’ comprehension of key aspects, including the (1) diabetes prediction process, (2) data sets used for model training, (3) data features used, and (4) relative significance of different features in prediction outcomes. Most participants reported heightened understanding of and trust in AI predictions following their use of XAI4Diabetes. The satisfaction survey results further revealed a high level of overall user satisfaction with the tool. Conclusions: This study introduces XAI4Diabetes, a versatile multi-model explainable prediction platform tailored to diabetes care. By enabling transparent diabetes risk predictions and delivering interpretable insights, XAI4Diabetes empowers health care professionals to comprehend the AI-driven decision-making process, thereby fostering transparency and trust. These advancements hold the potential to mitigate biases and facilitate the broader integration of AI in diabetes care. ©Rasha Hendawi, Juan Li, Souradip Roy.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.2196/50328</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a qualitative research framework for the design of user-centered displays of explanations for machine learning model predictions in healthcare</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Barda A.J.; Horvat C.M.; Hochheiser H.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BMC Medical Informatics and Decision Making</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Background: There is an increasing interest in clinical prediction tools that can achieve high prediction accuracy and provide explanations of the factors leading to increased risk of adverse outcomes. However, approaches to explaining complex machine learning (ML) models are rarely informed by end-user needs and user evaluations of model interpretability are lacking in the healthcare domain. We used extended revisions of previously-published theoretical frameworks to propose a framework for the design of user-centered displays of explanations. This new framework served as the basis for qualitative inquiries and design review sessions with critical care nurses and physicians that informed the design of a user-centered explanation display for an ML-based prediction tool. Methods: We used our framework to propose explanation displays for predictions from a pediatric intensive care unit (PICU) in-hospital mortality risk model. Proposed displays were based on a model-agnostic, instance-level explanation approach based on feature influence, as determined by Shapley values. Focus group sessions solicited critical care provider feedback on the proposed displays, which were then revised accordingly. Results: The proposed displays were perceived as useful tools in assessing model predictions. However, specific explanation goals and information needs varied by clinical role and level of predictive modeling knowledge. Providers preferred explanation displays that required less information processing effort and could support the information needs of a variety of users. Providing supporting information to assist in interpretation was seen as critical for fostering provider understanding and acceptance of the predictions and explanations. The user-centered explanation display for the PICU in-hospital mortality risk model incorporated elements from the initial displays along with enhancements suggested by providers. Conclusions: We proposed a framework for the design of user-centered displays of explanations for ML models. We used the proposed framework to motivate the design of a user-centered display of an explanation for predictions from a PICU in-hospital mortality risk model. Positive feedback from focus group participants provides preliminary support for the use of model-agnostic, instance-level explanations of feature influence as an approach to understand ML model predictions in healthcare and advances the discussion on how to effectively communicate ML model information to healthcare providers.  © 2020 The Author(s).</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.1186/s12911-020-01276-x</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a review of applications of artificial intelligence in cardiorespiratory rehabilitation</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Raja M.A.; Loughran R.; Caffery F.M.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Informatics in Medicine Unlocked</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Implementations of artificial intelligence and machine learning are becoming commonplace in multiple application domains. This is in part due to advancements in computing hardware that have helped outsource the computation of resource-intensive mathematics related to artificial intelligence and machine learning to the chips of multi-core and parallel computing architectures. Partly it is due to the widespread appeal of machine learning as a suite of handy tools to fix practical issues. Many fields have become beneficiaries of artificial intelligence and machine learning and cardiorespiratory rehabilitation is no exception. The aim of this paper is to review the current state of the art of the applications of artificial intelligence and machine learning in cardiorespiratory rehabilitation. We have taken a multidimensional view to addressing the needs and utility of artificial intelligence and machine learning in cardiorespiratory rehabilitation. We start with the most primitive applications of machine learning reported in existing literature in making medical devices for analyzing heartbeats and respiratory functions. We then discuss more recent approaches including deep learning to analyze performance or suggest alternative choices for food or exercise. Applications and utility of most recent feats such as explainable artificial intelligence are also discussed and conclusions around the current state of the art and possible future directions are proposed. © 2023 The Author(s)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10.1016/j.imu.2023.101327</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a review of domain ontologies for disability representation</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Spoladore D.; Sacco M.; Trombetta A.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Expert Systems with Applications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Healthcare 5.0 is a research trend promoting a patient-centric approach leveraging Artificial Intelligence (AI)-based solutions. It aims to enhance care and quality of life for all patients, including those with a disability. However, when applied to the health sector, AI may be perceived as not transparent: the Explainable AI (xAI) paradigm attempts to solve this issue by providing more understandable, reliable, and human-interpretable AI-based applications. In a field such as disability – characterized by various impairments, limitations in performing activities, or other kinds of restrictions – the possibility to rely on computable representations of domain knowledge in the form of ontologies can support the development of xAI for healthcare. This work proposes a systematic literature review to identify which disabilities are currently represented in domain ontologies, examining which applicative contexts the ontologies were developed for. This review also investigates how the domain ontologies are modelled, underlining several relevant aspects that may foster their adoption in xAI systems. The review process results allow for shedding light on the main disabilities represented in ontologies, tracing the research trends that were at the basis of their development. Results also enable the identification of research lines that can support semantic interoperability – thus enabling ontologies to play a significant role in explaining decision processes performed by AI-based systems in healthcare. © 2023 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10.1016/j.eswa.2023.120467</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a review of interpretable deep learning for neurological disease classification</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Katarya R.; Sharma P.; Soni N.; Rath P.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8th International Conference on Advanced Computing and Communication Systems, ICACCS 2022</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>While deep learning models have been able to boast high accuracies for healthcare applications, their actual clinical use has been limited due to their black-box nature. To tackle this problem, interpretability or explainability methods are used to help provide reasoning behind the decisions of a deep learning model as well as to gain insight into their reasoning process. This is necessary due to the high-stakes nature of healthcare applications, in which every decision made must be well informed. In this paper, we showcase the various techniques that are used for interpretability in neurological disease classification. We discuss the advantages and drawbacks of various methods used to generate explanations and also discuss how to evaluate these explanations. Finally, we also discuss some of the flaws in evaluation techniques and the future directions for this field. © 2022 IEEE.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10.1109/ICACCS54159.2022.9785321</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a review of machine learning’s role in cardiovascular disease prediction: recent advances and future challenges</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Naser M.A.; Majeed A.A.; Alsabah M.; Al-Shaikhli T.R.; Kaky K.M.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Algorithms</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cardiovascular disease is the leading cause of global mortality and responsible for millions of deaths annually. The mortality rate and overall consequences of cardiac disease can be reduced with early disease detection. However, conventional diagnostic methods encounter various challenges, including delayed treatment and misdiagnoses, which can impede the course of treatment and raise healthcare costs. The application of artificial intelligence (AI) techniques, especially machine learning (ML) algorithms, offers a promising pathway to address these challenges. This paper emphasizes the central role of machine learning in cardiac health and focuses on precise cardiovascular disease prediction. In particular, this paper is driven by the urgent need to fully utilize the potential of machine learning to enhance cardiovascular disease prediction. In light of the continued progress in machine learning and the growing public health implications of cardiovascular disease, this paper aims to offer a comprehensive analysis of the topic. This review paper encompasses a wide range of topics, including the types of cardiovascular disease, the significance of machine learning, feature selection, the evaluation of machine learning models, data collection &amp; preprocessing, evaluation metrics for cardiovascular disease prediction, and the recent trends &amp; suggestion for future works. In addition, this paper offers a holistic view of machine learning’s role in cardiovascular disease prediction and public health. We believe that our comprehensive review will contribute significantly to the existing body of knowledge in this essential area. © 2024 by the authors.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10.3390/a17020078</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a review of trustworthy and explainable artificial intelligence (xai)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Chamola V.; Hassija V.; Sulthana A.R.; Ghosh D.; Dhingra D.; Sikdar B.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>The advancement of Artificial Intelligence (AI) technology has accelerated the development of several systems that are elicited from it. This boom has made the systems vulnerable to security attacks and allows considerable bias in order to handle errors in the system. This puts humans at risk and leaves machines, robots, and data defenseless. Trustworthy AI (TAI) guarantees human value and the environment. In this paper, we present a comprehensive review of the state-of-the-art on how to build a Trustworthy and eXplainable AI, taking into account that AI is a black box with little insight into its underlying structure. The paper also discusses various TAI components, their corresponding bias, and inclinations that make the system unreliable. The study also discusses the necessity for TAI in many verticals, including banking, healthcare, autonomous system, and IoT. We unite the ways of building trust in all fragmented areas of data protection, pricing, expense, reliability, assurance, and decision-making processes utilizing TAI in several diverse industries and to differing degrees. It also emphasizes the importance of transparent and post hoc explanation models in the construction of an eXplainable AI and lists the potential drawbacks and pitfalls of building eXplainable AI. Finally, the policies for developing TAI in the autonomous vehicle construction sectors are thoroughly examined and eclectic ways of building a reliable, interpretable, eXplainable, and Trustworthy AI systems are explained to guarantee safe autonomous vehicle systems.  © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2023.3294569</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>a review on explainable artificial intelligence for healthcare: why, how, and when?</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bharati S.; Mondal M.R.H.; Podder P.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Artificial intelligence (AI) models are increasingly finding applications in the field of medicine. Concerns have been raised about the explainability of the decisions that are made by these AI models. In this article, we give a systematic analysis of explainable artificial intelligence (XAI), with a primary focus on models that are currently being used in the field of healthcare. The literature search is conducted following the preferred reporting items for systematic reviews and meta-analyses standards for relevant work published from 1 January 2012 to 2 February 2022. The review analyzes the prevailing trends in XAI and lays out the major directions in which research is headed. We investigate the why, how, and when of the uses of these XAI models and their implications. We present a comprehensive examination of XAI methodologies as well as an explanation of how a trustworthy AI can be derived from describing AI models for healthcare fields. The discussion of this work will contribute to the formalization of the XAI field.  © 2020 IEEE.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>10.1109/TAI.2023.3266418</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a scoping review on the progress, applicability, and future of explainable artificial intelligence in medicine</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>González-Alday, R; García-Cuesta, E; Kulikowski, CA; Maojo, V</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>APPLIED SCIENCES-BASEL</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Due to the success of artificial intelligence (AI) applications in the medical field over the past decade, concerns about the explainability of these systems have increased. The reliability requirements of black-box algorithms for making decisions affecting patients pose a challenge even beyond their accuracy. Recent advances in AI increasingly emphasize the necessity of integrating explainability into these systems. While most traditional AI methods and expert systems are inherently interpretable, the recent literature has focused primarily on explainability techniques for more complex models such as deep learning. This scoping review critically analyzes the existing literature regarding the explainability and interpretability of AI methods within the clinical domain. It offers a comprehensive overview of past and current research trends with the objective of identifying limitations that hinder the advancement of Explainable Artificial Intelligence (XAI) in the field of medicine. Such constraints encompass the diverse requirements of key stakeholders, including clinicians, patients, and developers, as well as cognitive barriers to knowledge acquisition, the absence of standardised evaluation criteria, the potential for mistaking explanations for causal relationships, and the apparent trade-off between model accuracy and interpretability. Furthermore, this review discusses possible research directions aimed at surmounting these challenges. These include alternative approaches to leveraging medical expertise to enhance interpretability within clinical settings, such as data fusion techniques and interdisciplinary assessments throughout the development process, emphasizing the relevance of taking into account the needs of final users to design trustable explainability methods.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10.3390/app131910778</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>a study of artificial intelligence frameworks and their capability to diagnose major depressive disorder</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Oyeniyi O.; Dhandhukia S.S.; Sen A.; Fletcher K.K.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>The accurate diagnosis of mental illness is challenging because mental illness does not result in evident physical symptoms as compared to physical illness like the common cold. As a result, no definitive medical tests exist for mental illnesses. This situation is further aggravated by the fact that many of the symptoms of various mental illnesses overlap. Further, traditional means of mental care and therapy are not easily accessible to a majority of the population in developed and developing countries alike. In addition, openly discussing mental illness in major parts of society is still considered taboo. Therefore, a plausible way to improve mental illness diagnosis and address the aforementioned challenges is by using Artificial Intelligence (AI). This paper presents a comprehensive survey of AI-enabled approaches to Major Depressive Disorder (MDD) diagnosis and outlines some future research directions and challenges in this field. The paper also presents a preliminary system architecture of an AI-enabled approach to diagnose mental health with the objectives of making the underlying system more user-centric, scalable and accessible. © 2022, Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-14135-5_1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>a survey of explainable artificial intelligence for smart cities</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Javed A.R.; Ahmed W.; Pandya S.; Maddikunta P.K.R.; Alazab M.; Gadekallu T.R.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Electronics (Switzerland)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>The emergence of Explainable Artificial Intelligence (XAI) has enhanced the lives of humans and envisioned the concept of smart cities using informed actions, enhanced user interpretations and explanations, and firm decision-making processes. The XAI systems can unbox the potential of black-box AI models and describe them explicitly. The study comprehensively surveys the current and future developments in XAI technologies for smart cities. It also highlights the societal, industrial, and technological trends that initiate the drive towards XAI for smart cities. It presents the key to enabling XAI technologies for smart cities in detail. The paper also discusses the concept of XAI for smart cities, various XAI technology use cases, challenges, applications, possible alternative solutions, and current and future research enhancements. Research projects and activities, including standardization efforts toward developing XAI for smart cities, are outlined in detail. The lessons learned from state-of-the-art research are summarized, and various technical challenges are discussed to shed new light on future research possibilities. The presented study on XAI for smart cities is a first-of-its-kind, rigorous, and detailed study to assist future researchers in implementing XAI-driven systems, architectures, and applications for smart cities. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>10.3390/electronics12041020</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a survey on artificial intelligence in histopathology image analysis</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Abdelsamea M.M.; Zidan U.; Senousy Z.; Gaber M.M.; Rakha E.; Ilyas M.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Wiley Interdisciplinary Reviews: Data Mining and Knowledge Discovery</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>The increasing adoption of the whole slide image (WSI) technology in histopathology has dramatically transformed pathologists' workflow and allowed the use of computer systems in histopathology analysis. Extensive research in Artificial Intelligence (AI) with a huge progress has been conducted resulting in efficient, effective, and robust algorithms for several applications including cancer diagnosis, prognosis, and treatment. These algorithms offer highly accurate predictions but lack transparency, understandability, and actionability. Thus, explainable artificial intelligence (XAI) techniques are needed not only to understand the mechanism behind the decisions made by AI methods and increase user trust but also to broaden the use of AI algorithms in the clinical setting. From the survey of over 150 papers, we explore different AI algorithms that have been applied and contributed to the histopathology image analysis workflow. We first address the workflow of the histopathological process. We present an overview of various learning-based, XAI, and actionable techniques relevant to deep learning methods in histopathological imaging. We also address the evaluation of XAI methods and the need to ensure their reliability on the field. This article is categorized under: Application Areas &gt; Health Care. © 2022 The Authors. WIREs Data Mining and Knowledge Discovery published by Wiley Periodicals LLC.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.1002/widm.1474</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a systematic review of human-computer interaction and explainable artificial intelligence in healthcare with artificial intelligence techniques</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nazar M.; Alam M.M.; Yafi E.; Su'Ud M.M.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Artificial intelligence (AI) is one of the emerging technologies. In recent decades, artificial intelligence (AI) has gained widespread acceptance in a variety of fields, including virtual support, healthcare, and security. Human-Computer Interaction (HCI) is a field that has been combining AI and human-computer engagement over the past several years in order to create an interactive intelligent system for user interaction. AI, in conjunction with HCI, is being used in a variety of fields by employing various algorithms and employing HCI to provide transparency to the user, allowing them to trust the machine. The comprehensive examination of both the areas of AI and HCI, as well as their subfields, has been explored in this work. The main goal of this article was to discover a point of intersection between the two fields. The understanding of Explainable Artificial Intelligence (XAI), which is a linking point of HCI and XAI, was gained through a literature review conducted in this research. The literature survey encompassed themes identified in the literature (such as XAI and its areas, major XAI aims, and XAI problems and challenges). The study's other major focus was on the use of AI, HCI, and XAI in healthcare. The poll also addressed the shortcomings in XAI in healthcare, as well as the field's future potential. As a result, the literature indicates that XAI in healthcare is still a novel subject that has to be explored more in the future.  © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2021.3127881</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>a systematic review of trustworthy and explainable artificial intelligence in healthcare: assessment of quality, bias risk, and data fusion</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Albahri A.S.; Duhaim A.M.; Fadhel M.A.; Alnoor A.; Baqer N.S.; Alzubaidi L.; Albahri O.S.; Alamoodi A.H.; Bai J.; Salhi A.; Santamaría J.; Ouyang C.; Gupta A.; Gu Y.; Deveci M.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Information Fusion</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>In the last few years, the trend in health care of embracing artificial intelligence (AI) has dramatically changed the medical landscape. Medical centres have adopted AI applications to increase the accuracy of disease diagnosis and mitigate health risks. AI applications have changed rules and policies related to healthcare practice and work ethics. However, building trustworthy and explainable AI (XAI) in healthcare systems is still in its early stages. Specifically, the European Union has stated that AI must be human-centred and trustworthy, whereas in the healthcare sector, low methodological quality and high bias risk have become major concerns. This study endeavours to offer a systematic review of the trustworthiness and explainability of AI applications in healthcare, incorporating the assessment of quality, bias risk, and data fusion to supplement previous studies and provide more accurate and definitive findings. Likewise, 64 recent contributions on the trustworthiness of AI in healthcare from multiple databases (i.e., ScienceDirect, Scopus, Web of Science, and IEEE Xplore) were identified using a rigorous literature search method and selection criteria. The considered papers were categorised into a coherent and systematic classification including seven categories: explainable robotics, prediction, decision support, blockchain, transparency, digital health, and review. In this paper, we have presented a systematic and comprehensive analysis of earlier studies and opened the door to potential future studies by discussing in depth the challenges, motivations, and recommendations. In this study a systematic science mapping analysis in order to reorganise and summarise the results of earlier studies to address the issues of trustworthiness and objectivity was also performed. Moreover, this work has provided decisive evidence for the trustworthiness of AI in health care by presenting eight current state-of-the-art critical analyses regarding those more relevant research gaps. In addition, to the best of our knowledge, this study is the first to investigate the feasibility of utilising trustworthy and XAI applications in healthcare, by incorporating data fusion techniques and connecting various important pieces of information from available healthcare datasets and AI algorithms. The analysis of the revised contributions revealed crucial implications for academics and practitioners, and then potential methodological aspects to enhance the trustworthiness of AI applications in the medical sector were reviewed. Successively, the theoretical concept and current use of 17 XAI methods in health care were addressed. Finally, several objectives and guidelines were provided to policymakers to establish electronic health-care systems focused on achieving relevant features such as legitimacy, morality, and robustness. Several types of information fusion in healthcare were focused on in this study, including data, feature, image, decision, multimodal, hybrid, and temporal. © 2023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>10.1016/j.inffus.2023.03.008</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>adoption and utilization of medical decision support systems in the diagnosis of febrile diseases: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Khan, N; Okoli, CN; Ekpin, V; Attai, K; Chukwudi, N; Sabi, H; Akwaowo, C; Osuji, J; Benavente, L; Uzoka, FM</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>EXPERT SYSTEMS WITH APPLICATIONS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Medical decision support systems (MDSS) utilized for medical diagnosis aim to improve patient care; they do so by simulating the human cognitive process in order to arrive at a valid clinical conclusion. MDSS play a significant role in promoting an efficient and effective health care system. However, the adoption and usage of these systems in daily medical practice have been slow due to a lack of physician confidence in the systems and concerns about the erosion of professional autonomy, obscure physicians' role, and diminished physician-patient relationships. Despite successes in the development of decision support systems, there is still a low adoption and utilization of MDSSs. This study reviews the development, adoption, and utilization of MDSSs in diagnosing Febrile Diseases between 2008 and 2020. We carried out a systematic literature review on the adoption and utilization of MDSS in diagnosing febrile diseases using guidelines provided in literature for systematic reviews and a PRISMA flow to guide paper selection, inclusion, and exclusion criteria. Three reviewers independently carried out literature searches on selected databases for MDSS to diagnose febrile diseases. After the initial searches, the reviewers cross-checked the results, and disagreements were resolved through mutual agreements. The reviewers extracted the data based on an agreed template, and a separate set of reviewers cross-checked this. The extracted data was then syn-thesized, analyzed, and split into various themes to answer the research questions. We identified 113 papers on MDSS development and utilization and 15 papers on studies relating to the adoption of MDSS. The analysis revealed that Fuzzy Logic was the most prevalent model of MDSS in use, while most models discussed in the papers were unimplemented. The results show that the main reason for proposing these models was to improve accuracy and precision. The main factors influencing the adoption of these models by medical facilities were usefulness, relative advantage, and ease of use. However, the reasons for adopting MDSS by the medical facilities were not expressed in 50% of the studies. In contrast, most of those who adopted MDSS disclosed that it was used to improve effectiveness and adherence to guidelines. Finally, compared to WHO statistics, it was determined that the number of papers did not correspond to the disease burden in the research continents. Although considerable research has been carried out on the adoption and utilization of MDSS, there is a paucity of research on implemented models of MDSS. Despite the advances in MDSSs and their accuracy in diagnosing diseases, many developed models have remained unimplemented in clinical practice. Future studies should focus on encouraging the actual usage of existing models that have not been implemented and conducting research on diseases with a high burden in their context. Governments and medical facility managers need to implement new policies, guidelines, and a support structure that will encourage the adoption and actual usage of MDSS in daily medical practice.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>10.1016/j.eswa.2023.119638</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>advances in machine learning and explainable artificial intelligence for depression prediction</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Byeon H.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>International Journal of Advanced Computer Science and Applications</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>There is a growing interest in applying AI technology in the field of mental health, particularly as an alternative to complement the limitations of human analysis, judgment, and accessibility in mental health assessments and treatments. The current mental health treatment service faces a gap in which individuals who need help are not receiving it due to negative perceptions of mental health treatment, lack of professional manpower, and physical accessibility limitations. To overcome these difficulties, there is a growing need for a new approach, and AI technology is being explored as a potential solution. Explainable artificial intelligence (X-AI) with both accuracy and interpretability technology can help improve the accuracy of expert decision-making, increase the accessibility of mental health services, and solve the psychological problems of high-risk groups of depression. In this review, we examine the current use of X-AI technology in mental health assessments for depression. As a result of reviewing 6 studies that used X-AI to discriminate high-risk groups of depression, various algorithms such as SHAP (SHapley Additive exPlanations) and Local Interpretable Model-Agnostic Explanation (LIME) were used for predicting depression. In the field of psychiatry, such as predicting depression, it is crucial to ensure AI prediction justifications are clear and transparent. Therefore, ensuring interpretability of AI models will be important in future research. © 2023, International Journal of Advanced Computer Science and Applications. All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10.14569/IJACSA.2023.0140656</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>an explainable artificial intelligence model for detecting covid-19 with twitter text classification: turkey case</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Alaff A.J.I.; Mukhairez H.H.A.; Kose U.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Networks and Systems</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>In December 2019, the first case of the coronavirus was reported, specifically in Wuhan, in China, and the virus began to spread very quickly until it reached more than 3 million cases around the world. But with the lack of technology and medical equipment and the existence of low health awareness in many countries, there is an intense research to combat with that massive problem. In this context, objective of this paper is to discover the spread of the virus according to the countries, by following what users around the world publish on social networking sites, especially on Twitter. In detail, we proposed an explainable artificial intelligence (XAI)-based text classification model that depends on three main steps to discover approximate numbers of infects, by checking the symptoms that published within Twitter posts. A dataset publishing cases of infected and the accompanying symptoms of more than 112 k cases was considered and a model with Naïve Bayes was trained through a comparative work with eight different classifiers. Naïve Bayes is a transparent machine learning technique so it is easier to use probabilistic relations between inputs and the outputs to explain results. Eventually, that XAI-based Naïve Bayes model reached to the highest accuracy rate with 93.6%. © 2021, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.1007/978-981-33-4084-8_9</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>an explainable machine learning model for prediction of high-risk nonalcoholic steatohepatitis</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Njei B.; Osta E.; Njei N.; Al-Ajlouni Y.A.; Lim J.K.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Scientific Reports</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Early identification of high-risk metabolic dysfunction-associated steatohepatitis (MASH) can offer patients access to novel therapeutic options and potentially decrease the risk of progression to cirrhosis. This study aimed to develop an explainable machine learning model for high-risk MASH prediction and compare its performance with well-established biomarkers. Data were derived from the National Health and Nutrition Examination Surveys (NHANES) 2017-March 2020, which included a total of 5281 adults with valid elastography measurements. We used a FAST score ≥ 0.35, calculated using liver stiffness measurement and controlled attenuation parameter values and aspartate aminotransferase levels, to identify individuals with high-risk MASH. We developed an ensemble-based machine learning XGBoost model to detect high-risk MASH and explored the model’s interpretability using an explainable artificial intelligence SHAP method. The prevalence of high-risk MASH was 6.9%. Our XGBoost model achieved a high level of sensitivity (0.82), specificity (0.91), accuracy (0.90), and AUC (0.95) for identifying high-risk MASH. Our model demonstrated a superior ability to predict high-risk MASH vs. FIB-4, APRI, BARD, and MASLD fibrosis scores (AUC of 0.95 vs. 0.50, 0.50, 0.49 and 0.50, respectively). To explain the high performance of our model, we found that the top 5 predictors of high-risk MASH were ALT, GGT, platelet count, waist circumference, and age. We used an explainable ML approach to develop a clinically applicable model that outperforms commonly used clinical risk indices and could increase the identification of high-risk MASH patients in resource-limited settings. © This is a U.S. Government work and not under copyright protection in the US; foreign copyright protection may apply 2024.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>10.1038/s41598-024-59183-4</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>an explainable prediction for dietary-related diseases via language models</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Choi I.; Kim J.; Kim W.C.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nutrients</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Our study harnesses the power of natural language processing (NLP) to explore the relationship between dietary patterns and metabolic health outcomes among Korean adults using data from the Seventh Korea National Health and Nutrition Examination Survey (KNHANES VII). Using Latent Dirichlet Allocation (LDA) analysis, we identified three distinct dietary patterns: “Traditional and Staple”, “Communal and Festive”, and “Westernized and Convenience-Oriented”. These patterns reflect the diversity of dietary preferences in Korea and reveal the cultural and social dimensions influencing eating habits and their potential implications for public health, particularly concerning obesity and metabolic disorders. Integrating NLP-based indices, including sentiment scores and the identified dietary patterns, into our predictive models significantly enhanced the accuracy of obesity and dyslipidemia predictions. This improvement was consistent across various machine learning techniques—XGBoost, LightGBM, and CatBoost—demonstrating the efficacy of NLP methodologies in refining disease prediction models. Our findings underscore the critical role of dietary patterns as indicators of metabolic diseases. The successful application of NLP techniques offers a novel approach to public health and nutritional epidemiology, providing a deeper understanding of the diet–disease nexus. This study contributes to the evolving field of personalized nutrition and emphasizes the potential of leveraging advanced computational tools to inform targeted nutritional interventions and public health strategies aimed at mitigating the prevalence of metabolic disorders in the Korean population. © 2024 by the authors.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>10.3390/nu16050686</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>analyzing the interactions between environmental parameters and cardiovascular diseases using random forest and shap algorithms</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Castronuovo G.; Favia G.; Telesca V.; Vammacigno A.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Reviews in Cardiovascular Medicine</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cardiovascular diseases (CVD) remain the predominant global cause of mortality, with both low and high temperatures increasing CVD-related mortalities. Climate change impacts human health directly through temperature fluctuations and indirectly via factors like disease vectors. Elevated and reduced temperatures have been linked to increases in CVD-related hospitalizations and mortality, with various studies worldwide confirming the significant health implications of temperature variations and air pollution on cardiovascular outcomes. Methods: A database of daily Emergency Room admissions at the Giovanni XIII Polyclinic in Bari (Southern Italy) was developed, spanning from 2013 to 2019, including weather and air quality data. A Random Forest (RF) supervised machine learning model was used to simulate the trend of hospital admissions for CVD. The Seasonal and Trend decomposition using Loess (STL) decomposition model separated the trend component, while cross-validation techniques were employed to prevent overfitting. Model performance was assessed using specific metrics and error analysis. Additionally, the SHapley Additive explanations (SHAP) method, a feature importance technique within the explainable Artificial Intelligence (XAI) framework, was used to identify the feature importance. Results: An R2 of 0.97 and a Mean Absolute Error of 0.36 admissions were achieved by the model. Atmospheric pressure, minimum temperature, and carbon monoxide were found to collectively contribute about 74% to the model's predictive power, with atmospheric pressure being the dominant factor at 37%. Conclusions: This research underscores the significant influence of weather-climate variables on cardiovascular diseases. The identified key climate factors provide a practical framework for policymakers and healthcare professionals to mitigate the adverse effects of climate change on CVD and devise preventive strategies. © 2023 IMR Press Limited. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10.31083/j.rcm2411330</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>application of big data analytics and internet of medical things (iomt) in healthcare with view of explainable artificial intelligence: a survey</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sinha A.; Garcia D.W.; Kumar B.; Banerjee P.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>The integration of Big Data Analytics (BDA) and the Internet of Medical Things (IoMT) has brought a significant transformation in the healthcare industry. The emergence of Explainable Artificial Intelligence (XAI) has further revolutionized the healthcare sector by providing insights into complex machine learning models. This survey aims to explore the application of BDA and IoMT in healthcare with a view on XAI. The survey highlights the benefits of BDA and IoMT in healthcare, such as improved patient outcomes, reduced healthcare costs, and enhanced personalized medicine. It also discusses the challenges associated with the use of BDA and IoMT, including data privacy, security, and regulatory compliance. The survey provides an overview of the latest research and development in the field of XAI, with particular focus on its application in healthcare. Furthermore, the survey presents a detailed analysis of the existing literature on the integration of BDA, IoMT, and XAI in healthcare. It discusses the various applications of BDA, IoMT, and XAI in healthcare, such as medical imaging, drug discovery, diagnosis, and treatment planning. The survey also highlights the potential benefits of XAI in healthcare, including transparency, interpretability, and fairness. Finally, the survey concludes by discussing the future research directions in the field of BDA, IoMT, and XAI in healthcare. It emphasizes the need for ethical guidelines and best practices for the responsible use of BDA, IoMT, and XAI in healthcare to ensure patient safety and privacy. The survey provides valuable insights into the integration of BDA, IoMT, and XAI in healthcare and their potential to revolutionize the healthcare industry. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-08637-3_8</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>application of explainable artificial intelligence for healthcare: a systematic review of the last decade (2011-2022)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Loh, HW; Ooi, CP; Seoni, S; Barua, PD; Molinari, F; Acharya, UR</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>COMPUTER METHODS AND PROGRAMS IN BIOMEDICINE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Background and objectives: Artificial intelligence (AI) has branched out to various applications in health-care, such as health services management, predictive medicine, clinical decision-making, and patient data and diagnostics. Although AI models have achieved human-like performance, their use is still limited because they are seen as a black box. This lack of trust remains the main reason for their low use in practice, especially in healthcare. Hence, explainable artificial intelligence (XAI) has been introduced as a technique that can provide confidence in the model's prediction by explaining how the prediction is derived, thereby encouraging the use of AI systems in healthcare. The primary goal of this review is to provide areas of healthcare that require more attention from the XAI research community.Methods: Multiple journal databases were thoroughly searched using PRISMA guidelines 2020. Studies that do not appear in Q1 journals, which are highly credible, were excluded. Results: In this review, we surveyed 99 Q1 articles covering the following XAI techniques: SHAP, LIME, GradCAM, LRP, Fuzzy classifier, EBM, CBR, rule-based systems, and others.Conclusion: We discovered that detecting abnormalities in 1D biosignals and identifying key text in clini-cal notes are areas that require more attention from the XAI research community. We hope this is review will encourage the development of a holistic cloud system for a smart city.(c) 2022 Elsevier B.V. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>10.1016/j.cmpb.2022.107161</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>application of explainable artificial intelligence for healthcare: a systematic review of the last decade (2011–2022)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Loh H.W.; Ooi C.P.; Seoni S.; Barua P.D.; Molinari F.; Acharya U.R.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Computer Methods and Programs in Biomedicine</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Background and objectives: Artificial intelligence (AI) has branched out to various applications in healthcare, such as health services management, predictive medicine, clinical decision-making, and patient data and diagnostics. Although AI models have achieved human-like performance, their use is still limited because they are seen as a black box. This lack of trust remains the main reason for their low use in practice, especially in healthcare. Hence, explainable artificial intelligence (XAI) has been introduced as a technique that can provide confidence in the model's prediction by explaining how the prediction is derived, thereby encouraging the use of AI systems in healthcare. The primary goal of this review is to provide areas of healthcare that require more attention from the XAI research community. Methods: Multiple journal databases were thoroughly searched using PRISMA guidelines 2020. Studies that do not appear in Q1 journals, which are highly credible, were excluded. Results: In this review, we surveyed 99 Q1 articles covering the following XAI techniques: SHAP, LIME, GradCAM, LRP, Fuzzy classifier, EBM, CBR, rule-based systems, and others. Conclusion: We discovered that detecting abnormalities in 1D biosignals and identifying key text in clinical notes are areas that require more attention from the XAI research community. We hope this is review will encourage the development of a holistic cloud system for a smart city. © 2022 Elsevier B.V.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>10.1016/j.cmpb.2022.107161</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>application of explainable artificial intelligence in medical health: a systematic review of interpretability methods</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S Band S.; Yarahmadi A.; Hsu C.-C.; Biyari M.; Sookhak M.; Ameri R.; Dehzangi I.; Chronopoulos A.T.; Liang H.-W.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Informatics in Medicine Unlocked</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>This paper investigates the applications of explainable AI (XAI) in healthcare, which aims to provide transparency, fairness, accuracy, generality, and comprehensibility to the results obtained from AI and ML algorithms in decision-making systems. The black box nature of AI and ML systems has remained a challenge in healthcare, and interpretable AI and ML techniques can potentially address this issue. Here we critically review previous studies related to the interpretability of ML and AI methods in medical systems. Descriptions of various types of XAI methods such as layer-wise relevance propagation (LRP), Uniform Manifold Approximation and Projection (UMAP), Local Interpretable Model-agnostic Explanations (LIME), SHapley Additive exPlanations (SHAP), ANCHOR, contextual importance and utility (CIU), Training calibration-based explainers (TraCE), Gradient-weighted Class Activation Mapping (Grad-CAM), t-distributed Stochastic Neighbor Embedding (t-SNE), NeuroXAI, Explainable Cumulative Fuzzy Class Membership Criterion (X-CFCMC) along with the diseases which can be explained through these methods are provided throughout the paper. The paper also discusses how AI and ML technologies can transform healthcare services. The usability and reliability of the presented methods are summarized, including studies on the usability and reliability of XGBoost for mediastinal cysts and tumors, a 3D brain tumor segmentation network, and the TraCE method for medical image analysis. Overall, this paper aims to contribute to the growing field of XAI in healthcare and provide insights for researchers, practitioners, and decision-makers in the healthcare industry. Finally, we discuss the performance of XAI methods applied in medical health care systems. It is also needed to mention that a brief implemented method is provided in the methodology section. © 2023</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>10.1016/j.imu.2023.101286</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>artificial intelligence and biosensors in healthcare and its clinical relevance: a review</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Qureshi R.; Irfan M.; Ali H.; Khan A.; Nittala A.S.; Ali S.; Shah A.; Gondal T.M.; Sadak F.; Shah Z.; Hadi M.U.; Khan S.; Al-Tashi Q.; Wu J.; Bermak A.; Alam T.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Data generated from sources such as wearable sensors, medical imaging, personal health records, and public health organizations have resulted in a massive information increase in the medical sciences over the last decade. Advances in computational hardware, such as cloud computing, graphical processing units (GPUs), Field-programmable gate arrays (FPGAs) and tensor processing units (TPUs), provide the means to utilize these data. Consequently, an array of sophisticated Artificial Intelligence (AI) techniques have been devised to extract valuable insights from the extensive datasets in the healthcare industry. Here, we present an overview of recent progress in AI and biosensors in medical and life sciences. We discuss the role of machine learning in medical imaging, precision medicine, and biosensors for the Internet of Things (IoT). We review the latest advancements in wearable biosensing technologies. These innovative solutions employ AI to assist in monitoring of bodily electro-physiological and electro-chemical signals, as well as in disease diagnosis. These advancements exemplify the trend towards personalized medicine, delivering highly effective, cost-efficient, and precise point-of-care treatment.Furthermore, an overview of the advances in computing technologies, such as accelerated AI, edge computing, and federated learning for medical data, are also documented. Finally, we investigate challenges in data-driven AI approaches, the potential issues generated by biosensors and IoT-based healthcare, and the distribution shifts that occur among different data modalities, concluding with an overview of future prospects.  © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2023.3285596</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>artificial intelligence technologies in cardiology</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Ledziński Ł.; Grześk G.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Journal of Cardiovascular Development and Disease</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>As the world produces exabytes of data, there is a growing need to find new methods that are more suitable for dealing with complex datasets. Artificial intelligence (AI) has significant potential to impact the healthcare industry, which is already on the road to change with the digital transformation of vast quantities of information. The implementation of AI has already achieved success in the domains of molecular chemistry and drug discoveries. The reduction in costs and in the time needed for experiments to predict the pharmacological activities of new molecules is a milestone in science. These successful applications of AI algorithms provide hope for a revolution in healthcare systems. A significant part of artificial intelligence is machine learning (ML), of which there are three main types—supervised learning, unsupervised learning, and reinforcement learning. In this review, the full scope of the AI workflow is presented, with explanations of the most-often-used ML algorithms and descriptions of performance metrics for both regression and classification. A brief introduction to explainable artificial intelligence (XAI) is provided, with examples of technologies that have developed for XAI. We review important AI implementations in cardiology for supervised, unsupervised, and reinforcement learning and natural language processing, emphasizing the used algorithm. Finally, we discuss the need to establish legal, ethical, and methodical requirements for the deployment of AI models in medicine. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>10.3390/jcdd10050202</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>augmenting decision competence in healthcare using ai-based cognitive models</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Keller N.; Jenny M.A.; Spies C.A.; Herzog S.M.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2020 IEEE International Conference on Healthcare Informatics, ICHI 2020</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>In many critical decisions, such as medicine, transparency of the underlying decision process is critical. This extends to decision processes that are supported by artificial intelligence. Rather than using a post-hoc explainability approach from explainable AI research (SHAP or LIME), we develop and test an intrinsically transparent and intuitively interpretable model developed from cognitive science, fast-And-frugal trees, in a comparative analysis with state-of-The-Art machine learning models. The resultant decision support can be easily implemented as laminated pocket card, augmenting the decision competence of physicians rather than replacing it. © 2020 IEEE.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>10.1109/ICHI48887.2020.9374376</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>automated detection and forecasting of covid-19 using deep learning techniques: a review</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Shoeibi A.; Khodatars M.; Jafari M.; Ghassemi N.; Sadeghi D.; Moridian P.; Khadem A.; Alizadehsani R.; Hussain S.; Zare A.; Sani Z.A.; Khozeimeh F.; Nahavandi S.; Acharya U.R.; Gorriz J.M.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Neurocomputing</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>In March 2020, the World Health Organization (WHO) declared COVID-19 a global epidemic, caused by the SARS-CoV-2 virus. Initially, COVID-19 was diagnosed using real-time reverse transcription–polymerase chain reaction (RT-PCR) tests with a turnaround time of 2–3 days. To enhance diagnostic accuracy, medical professionals use medical imaging alongside RT-PCR. A positive result on both RT-PCR and medical imaging confirms a COVID-19 diagnosis. Imaging modalities like chest X-ray (CXR), computed tomography (CT) scans, and ultrasound are widely utilized for rapid and precise COVID-19 diagnoses. However, interpreting COVID-19 from these images is time-consuming and susceptible to human error. Therefore, leveraging artificial intelligence (AI) methods, particularly deep learning (DL) models, can deliver consistent, high-performance results. Unlike conventional machine learning (ML), DL models automate all stages of feature extraction, selection, and classification. This paper presents a comprehensive review of using DL techniques for diagnosing COVID-19 from medical imaging. The introduction provides an overview of diagnosing the coronavirus using medical imaging, highlighting associated challenges. Subsequently, the paper delves into key aspects of Computer-Aided Diagnosis Systems (CADS) based on DL methods for diagnosing COVID-19, covering segmentation, classification, explainable AI (XAI), and predictive research. Additionally, it reviews the rehabilitation systems such as the Internet of Medical Things (IoMT) in the context of COVID-19. In another section, uncertainty quantification (UQ) research is showcased, focusing on DL models for the diagnosis of Covid-19. Crucial challenges and future research directions are outlined in another section. Finally, discussion and conclusion sections are also provided at the end of the paper. © 2024 Elsevier B.V.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>10.1016/j.neucom.2024.127317</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>comparative performance analysis of feature selection for mortality prediction in icu with explainable artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tasnim N.; Mamun S.A.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3rd International Conference on Electrical, Computer and Communication Engineering, ECCE 2023</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>The mortality prediction model in the Intensive Care Unit (ICU) can be a great tool for assisting physicians in decision-making for the optimal allocation of ICU according to the patient's health conditions. Traditional scoring-based systems for mortality prediction don't provide good predictive performance in the case of a large dataset. Moreover, machine learning models can also provide poor performance for the lack of proper feature selection. A comparison of the performance of machine learning models with and without feature selection was explored in this study. Principal Component Analysis (PCA) was used to choose features for this investigation. For the classification job, the most widely used and diversified classifiers from the literature were used, including Logistic Regression(LR), Decision Tree (DT), K Nearest Neighbours (KNN), and Support Vector Machine (SVM). The Medical Information Mart for Intensive Care III (MIMIC-III) dataset was used to collect data on heart failure patients. On the MIMIC-III dataset, it was discovered that feature selection significantly improved the performance of the described machine learning models. Without feature selection, the accuracy of LR, DT, KNN, and SVM models was 86.66%, 80.12%, 85.13%, and 86.49%, respectively, however with PCA, the accuracy was improved to 88.0%, 80.46%, 86.83%, and 87.34%, respectively with only 5 principal components. Finally, the model's decision-making process was analyzed with explainable artificial intelligence using Local Interpretable Model-agnostic Explanations (LIME). This analysis can help to understand the feature's contribution to the model's prediction process. It was also observed that the features involved in the prediction process were mostly common with the first 15 features found in feature importance hierarchy. © 2023 IEEE.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>10.1109/ECCE57851.2023.10101553</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>configurations of human-centered ai at work: seven actor-structure engagements in organizations</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wilkens, U; Lupp, D; Langholf, V</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>FRONTIERS IN ARTIFICIAL INTELLIGENCE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Purpose: The discourse on the human-centricity of AI at work needs contextualization. The aim of this study is to distinguish prevalent criteria of human-centricity for AI applications in the scientific discourse and to relate them to the work contexts for which they are specifically intended. This leads to configurations of actor-structure engagements that foster human-centricity in the workplace.Theoretical foundation: The study applies configurational theory to sociotechnical systems' analysis of work settings. The assumption is that different approaches to promote human-centricity coexist, depending on the stakeholders responsible for their application.Method: The exploration of criteria indicating human-centricity and their synthesis into configurations is based on a cross-disciplinary literature review following a systematic search strategy and a deductive-inductive qualitative content analysis of 101 research articles.Results: The article outlines eight criteria of human-centricity, two of which face challenges of human-centered technology development (trustworthiness and explainability), three challenges of human-centered employee development (prevention of job loss, health, and human agency and augmentation), and three challenges of human-centered organizational development (compensation of systems' weaknesses, integration of user-domain knowledge, accountability, and safety culture). The configurational theory allows contextualization of these criteria from a higher-order perspective and leads to seven configurations of actor-structure engagements in terms of engagement for (1) data and technostructure, (2) operational process optimization, (3) operators' employment, (4) employees' wellbeing, (5) proficiency, (6) accountability, and (7) interactive cross-domain design. Each has one criterion of human-centricity in the foreground. Trustworthiness does not build its own configuration but is proposed to be a necessary condition in all seven configurations.Discussion: The article contextualizes the overall debate on human-centricity and allows us to specify stakeholder-related engagements and how these complement each other. This is of high value for practitioners bringing human-centricity to the workplace and allows them to compare which criteria are considered in transnational declarations, international norms and standards, or company guidelines.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10.3389/frai.2023.1272159</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>deep learning in diagnosis of dental anomalies and diseases: a systematic review</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sivari E.; Senirkentli G.B.; Bostanci E.; Guzel M.S.; Acici K.; Asuroglu T.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Deep learning and diagnostic applications in oral and dental health have received significant attention recently. In this review, studies applying deep learning to diagnose anomalies and diseases in dental image material were systematically compiled, and their datasets, methodologies, test processes, explainable artificial intelligence methods, and findings were analyzed. Tests and results in studies involving human-artificial intelligence comparisons are discussed in detail to draw attention to the clinical importance of deep learning. In addition, the review critically evaluates the literature to guide and further develop future studies in this field. An extensive literature search was conducted for the 2019–May 2023 range using the Medline (PubMed) and Google Scholar databases to identify eligible articles, and 101 studies were shortlisted, including applications for diagnosing dental anomalies (n = 22) and diseases (n = 79) using deep learning for classification, object detection, and segmentation tasks. According to the results, the most commonly used task type was classification (n = 51), the most commonly used dental image material was panoramic radiographs (n = 55), and the most frequently used performance metric was sensitivity/recall/true positive rate (n = 87) and accuracy (n = 69). Dataset sizes ranged from 60 to 12,179 images. Although deep learning algorithms are used as individual or at least individualized architectures, standardized architectures such as pre-trained CNNs, Faster R-CNN, YOLO, and U-Net have been used in most studies. Few studies have used the explainable AI method (n = 22) and applied tests comparing human and artificial intelligence (n = 21). Deep learning is promising for better diagnosis and treatment planning in dentistry based on the high-performance results reported by the studies. For all that, their safety should be demonstrated using a more reproducible and comparable methodology, including tests with information about their clinical applicability, by defining a standard set of tests and performance metrics. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>10.3390/diagnostics13152512</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>deepxplainer: an interpretable deep learning based approach for lung cancer detection using explainable artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wani N.A.; Kumar R.; Bedi J.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Computer Methods and Programs in Biomedicine</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Background and Objective: Artificial intelligence (AI) has several uses in the healthcare industry, some of which include healthcare management, medical forecasting, practical making of decisions, and diagnosis. AI technologies have reached human-like performance, but their use is limited since they are still largely viewed as opaque black boxes. This distrust remains the primary factor for their limited real application, particularly in healthcare. As a result, there is a need for interpretable predictors that provide better predictions and also explain their predictions. Methods: This study introduces “DeepXplainer”, a new interpretable hybrid deep learning-based technique for detecting lung cancer and providing explanations of the predictions. This technique is based on a convolutional neural network and XGBoost. XGBoost is used for class label prediction after “DeepXplainer” has automatically learned the features of the input using its many convolutional layers. For providing explanations or explainability of the predictions, an explainable artificial intelligence method known as “SHAP” is implemented. Results: The open-source “Survey Lung Cancer” dataset was processed using this method. On multiple parameters, including accuracy, sensitivity, F1-score, etc., the proposed method outperformed the existing methods. The proposed method obtained an accuracy of 97.43%, a sensitivity of 98.71%, and an F1-score of 98.08. After the model has made predictions with this high degree of accuracy, each prediction is explained by implementing an explainable artificial intelligence method at both the local and global levels. Conclusions: A deep learning-based classification model for lung cancer is proposed with three primary components: one for feature learning, another for classification, and a third for providing explanations for the predictions made by the proposed hybrid (ConvXGB) model. The proposed “DeepXplainer” has been evaluated using a variety of metrics, and the results demonstrate that it outperforms the current benchmarks. Providing explanations for the predictions, the proposed approach may help doctors in detecting and treating lung cancer patients more effectively. © 2023 Elsevier B.V.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>10.1016/j.cmpb.2023.107879</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>demystifying supervised learning in healthcare 4.0: a new reality of transforming diagnostic medicine</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Roy S.; Meena T.; Lim S.-J.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>The global healthcare sector continues to grow rapidly and is reflected as one of the fastest-growing sectors in the fourth industrial revolution (4.0). The majority of the healthcare industry still uses labor-intensive, time-consuming, and error-prone traditional, manual, and manpower-based methods. This review addresses the current paradigm, the potential for new scientific discoveries, the technological state of preparation, the potential for supervised machine learning (SML) prospects in various healthcare sectors, and ethical issues. The effectiveness and potential for innovation of disease diagnosis, personalized medicine, clinical trials, non-invasive image analysis, drug discovery, patient care services, remote patient monitoring, hospital data, and nanotechnology in various learning-based automation in healthcare along with the requirement for explainable artificial intelligence (AI) in healthcare are evaluated. In order to understand the potential architecture of non-invasive treatment, a thorough study of medical imaging analysis from a technical point of view is presented. This study also represents new thinking and developments that will push the boundaries and increase the opportunity for healthcare through AI and SML in the near future. Nowadays, SML-based applications require a lot of data quality awareness as healthcare is data-heavy, and knowledge management is paramount. Nowadays, SML in biomedical and healthcare developments needs skills, quality data consciousness for data-intensive study, and a knowledge-centric health management system. As a result, the merits, demerits, and precautions need to take ethics and the other effects of AI and SML into consideration. The overall insight in this paper will help researchers in academia and industry to understand and address the future research that needs to be discussed on SML in the healthcare and biomedical sectors. © 2022 by the authors.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10.3390/diagnostics12102549</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>designing a framework for explainable health recommender system based on the ecuadorian data protection regulations</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Jaramillo B.; Loza-Aguirre E.; Terán L.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2023 9th International Conference on eDemocracy and eGovernment, ICEDEG 2023</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Technological advances and development in explainable artificial intelligence (XAI) in the health sector are growing worldwide. However, according to different studies in Latin America, there is a lack of knowledge, know-how, and technical skills to master these new technologies. Most medical software professionals can be considered 'black boxes.' This paper focuses on a case study on the lack of technological uses of XAI methods in the health Ecuadorian medical system to support health professionals in treating and managing patients' diseases based on Ecuadorian data protection regulations. A survey was conducted with 71 Ecuadorian medical professionals to know their technological problems in medical appointments. Related works were reviewed to understand techniques or other existing solutions in the XAI field that can complement the designing of so-called health recommender systems. This paper shows the main results of the survey. These results provide guidelines for further designing a framework for managing sensitive data and developing the XAI health recommender system to optimize medical professionals' decision-making, avoiding third-party use of sensitive patient data for other uses.  © 2023 IEEE.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10.1109/ICEDEG58167.2023.10122066</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>designing an evaluation framework for explainable ai in the healthcare domain</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Donoso-Guzmá I.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>CEUR Workshop Proceedings</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>The rapid adoption of Artificial Intelligence (AI) has brought automation and problem-solving capabilities in various fields, including healthcare. However, a significant challenge lies in the lack of explanation for AI predictions, particularly in healthcare, where transparency is crucial. This issue has led to eXplainable AI (XAI) development, focusing on constructing explanations for AI systems. However, the evaluation of these explanations lacks a standardized user-centric approach. This research proposes an evaluation framework for XAI methods to address this gap. The project involves four stages: conducting a systematic review of current evaluation methods, assessing the appropriateness of automatic evaluation of explanations, and conducting user studies to gauge the framework's effectiveness in capturing the user experience complexity. The desired outcome is a user-centric evaluation framework and guidelines, enhancing the scalability of XAI research and fostering confidence in adopting AI systems in the healthcare domain. © 2023 CEUR-WS. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>designing interpretable ml system to enhance trust in healthcare: a systematic review to proposed responsible clinician-ai-collaboration framework</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Nasarian E.; Alizadehsani R.; Acharya U.R.; Tsui K.-L.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Information Fusion</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Background: Artificial intelligence (AI)-based medical devices and digital health technologies, including medical sensors, wearable health trackers, telemedicine, mobile health (mHealth), large language models (LLMs), and digital care twins (DCTs), significantly influence the process of clinical decision support systems (CDSS) in healthcare and medical applications. However, given the complexity of medical decisions, it is crucial that results generated by AI tools not only be correct but also carefully evaluated, understandable, and explainable to end-users, especially clinicians. The lack of interpretability in communicating AI clinical decisions can lead to mistrust among decision-makers and a reluctance to use these technologies. Objective: This paper systematically reviews the processes and challenges associated with interpretable machine learning (IML) and explainable artificial intelligence (XAI) within the healthcare and medical domains. Its main goals are to examine the processes of IML and XAI, their related methods, applications, and the implementation challenges they pose in digital health interventions (DHIs), particularly from a quality control perspective, to help understand and improve communication between AI systems and clinicians. The IML process is categorized into pre-processing interpretability, interpretable modeling, and post-processing interpretability. This paper aims to foster a comprehensive understanding of the significance of a robust interpretability approach in clinical decision support systems (CDSS) by reviewing related experimental results. The goal is to provide future researchers with insights for creating clinician-AI tools that are more communicable in healthcare decision support systems and offer a deeper understanding of their challenges. Methods: Our research questions, eligibility criteria, and primary goals were proved using the Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA) guideline and the PICO (population, intervention, control, and outcomes) method. We systematically searched PubMed, Scopus, and Web of Science databases using sensitive and specific search strings. Subsequently, duplicate papers were removed using EndNote and Covidence. A two-phase selection process was then carried out on Covidence, starting with screening by title and abstract, followed by a full-text appraisal. The Meta Quality Appraisal Tool (MetaQAT) was used to assess the quality and risk of bias. Finally, a standardized data extraction tool was employed for reliable data mining. Results: The searches yielded 2,241 records, from which 555 duplicate papers were removed. During the title and abstract screening step, 958 papers were excluded, and the full-text review step excluded 482 studies. Subsequently, in quality and risk of bias assessment, 172 papers were removed. 74 publications were selected for data extraction, which formed 10 insightful reviews and 64 related experimental studies. Conclusion: The paper provides general definitions of explainable artificial intelligence (XAI) in the medical domain and introduces a framework for interpretability in clinical decision support systems structured across three levels. It explores XAI-related health applications within each tier of this framework, underpinned by a review of related experimental findings. Furthermore, the paper engages in a detailed discussion of quality assessment tools for evaluating XAI in intelligent health systems. It also presents a step-by-step roadmap for implementing XAI in clinical settings. To direct future research toward bridging current gaps, the paper examines the importance of XAI models from various angles and acknowledges their limitations. © 2024 Elsevier B.V.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10.1016/j.inffus.2024.102412</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>detection of air pollution and its adverse effects on human health: analytical approach of different data particles in ncr, india</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Rastogi R.; Rastogi A.R.; Sharma D.; Rastogi M.; Garg P.; Srivastava P.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>International Journal of Social Ecology and Sustainable Development</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>The magnitude of air contamination in advanced countries is depreciating drastically as observed in ongoing analysis as compared to the previous decade. Notwithstanding, in developing nations and countries pursuing industrialization and automation, the moderate significant levels of air contamination still serves as a threat, in spite of the levels gradually decreasing or remaining static during fast monetary improvement. Recently, hundreds of examinations in accordance with spread and management of disease have risen demonstrating unpleasant healthy consequences concern with present moment and prolonged exposure to the toxins present in the air. Periodic research and studies held in Asian and developed areas moreover indicated comparative healthy outcomes on impermanence of humanity related with association to particulate matter (PM), sulfur dioxide (SO2), ozone (O3), nitrogen dioxide (NO2) to those examined in Europe and North America. The present work is an effort to critically analyze the air pollution by machine learning and its adverse effects on human health. © 2022, IGI Global. Copying or distributing in print or electronic forms without written permission of IGI Global is prohibited.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10.4018/IJSESD.289645</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>developing and deploying deep learning models in brain magnetic resonance imaging: a review</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Aggarwal, K; Jimeno, MM; Ravi, KS; Gonzalez, G; Geethanath, S</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NMR IN BIOMEDICINE</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Magnetic resonance imaging (MRI) of the brain has benefited from deep learning (DL) to alleviate the burden on radiologists and MR technologists, and improve throughput. The easy accessibility of DL tools has resulted in a rapid increase of DL models and subsequent peer-reviewed publications. However, the rate of deployment in clinical settings is low. Therefore, this review attempts to bring together the ideas from data collection to deployment in the clinic, building on the guidelines and principles that accreditation agencies have espoused. We introduce the need for and the role of DL to deliver accessible MRI. This is followed by a brief review of DL examples in the context of neuropathologies. Based on these studies and others, we collate the prerequisites to develop and deploy DL models for brain MRI. We then delve into the guiding principles to develop good machine learning practices in the context of neuroimaging, with a focus on explainability. A checklist based on the United States Food and Drug Administration's good machine learning practices is provided as a summary of these guidelines. Finally, we review the current challenges and future opportunities in DL for brain MRI.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>10.1002/nbm.5014</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>editorial: explainable artificial intelligence for critical healthcare applications</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>He Z.; Zhang R.; Diallo G.; Huang Z.; Glicksberg B.S.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Frontiers in Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[No abstract available]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>10.3389/frai.2023.1282800</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>editorial: unraveling sleep and its disorders using novel analytical approaches, volume ii</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gutiérrez-Tobal G.C.; Kheirandish-Gozal L.; Gozal D.; Hornero R.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Frontiers in Neuroscience</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[No abstract available]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>10.3389/fnins.2023.1332749</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>effect of gut microbiota biotransformation on dietary tannins and human health implications</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sallam I.E.; Abdelwareth A.; Attia H.; Aziz R.K.; Homsi M.N.; von Bergen M.; Farag M.A.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Microorganisms</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tannins represent a heterogeneous group of high‐molecular‐weight polyphenols that are ubiquitous among plant families, especially in cereals, as well as in many fruits and vegetables. Hydrolysable and condensed tannins, in addition to phlorotannins from marine algae, are the main classes of these bioactive compounds. Despite their low bioavailability, tannins have many beneficial pharmacological effects, such as anti‐inflammatory, antioxidant, antidiabetic, anticancer, and cardioprotective effects. Microbiota‐mediated hydrolysis of tannins produces highly bioaccessible metabolites, which have been extensively studied and account for most of the health effects attributed to tannins. This review article summarises the effect of the human microbiota on the metabolism of different tannin groups and the expected health benefits that may be induced by such mutual interactions. Microbial metabolism of tannins yields highly bioaccessible microbial metabolites that account for most of the systemic effects of tannins. This article also uses explainable artificial intelligence to define the molecular signatures of gut‐biotransformed tannin metabolites that are correlated with chemical and biological activity. An understanding of microbiota–tannin interactions, tannin metabolism‐related phenotypes (metabotypes) and chemical tannin‐metabolites motifs is of great importance for harnessing the biological effects of tannins for drug discovery and other health benefits. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>10.3390/microorganisms9050965</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>empowering precision medicine: ai-driven schizophrenia diagnosis via eeg signals: a comprehensive review from 2002-2023</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Jafari, M; Sadeghi, D; Shoeibi, A; Alinejad-Rokny, H; Beheshti, A; García, DL; Chen, ZL; Acharya, UR; Gorriz, JM</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>APPLIED INTELLIGENCE</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Schizophrenia (SZ) is a prevalent mental disorder characterized by cognitive, emotional, and behavioral changes. Symptoms of SZ include hallucinations, illusions, delusions, lack of motivation, and difficulties in concentration. While the exact causes of SZ remain unproven, factors such as brain injuries, stress, and psychotropic drugs have been implicated in its development. SZ can be classified into different types, including paranoid, disorganized, catatonic, undifferentiated, and residual. Diagnosing SZ involves employing various tools, including clinical interviews, physical examinations, psychological evaluations, the Diagnostic and Statistical Manual of Mental Disorders (DSM), and neuroimaging techniques. Electroencephalography (EEG) recording is a significant functional neuroimaging modality that provides valuable insights into brain function during SZ. However, EEG signal analysis poses challenges for neurologists and scientists due to the presence of artifacts, long-term recordings, and the utilization of multiple channels. To address these challenges, researchers have introduced artificial intelligence (AI) techniques, encompassing conventional machine learning (ML) and deep learning (DL) methods, to aid in SZ diagnosis. This study reviews papers focused on SZ diagnosis utilizing EEG signals and AI methods. The introduction section provides a comprehensive explanation of SZ diagnosis methods and intervention techniques. Subsequently, review papers in this field are discussed, followed by an introduction to the AI methods employed for SZ diagnosis and a summary of relevant papers presented in tabular form. Additionally, this study reports on the most significant challenges encountered in SZ diagnosis, as identified through a review of papers in this field. Future directions to overcome these challenges are also addressed. The discussion section examines the specific details of each paper, culminating in the presentation of conclusions and findings.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10.1007/s10489-023-05155-6</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>estimation of daily ground level air pollution in italian municipalities with machine learning models using sentinel-5p and era5 data</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fania A.; Monaco A.; Pantaleo E.; Maggipinto T.; Bellantuono L.; Cilli R.; Lacalamita A.; La Rocca M.; Tangaro S.; Amoroso N.; Bellotti R.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Remote Sensing</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Recent years have witnessed an increasing interest in air pollutants and their effects on human health. More generally, it has become evident how human, animal and environmental health are deeply interconnected within a One Health framework. Ground level air monitoring stations are sparse and thus have limited coverage due to high costs. Satellite and reanalysis data represent an alternative with high spatio-temporal resolution. The idea of this work is to build an Artificial Intelligence model for the estimation of surface-level daily concentrations of air pollutants over the entire Italian territory using satellite, climate reanalysis, geographical and social data. As ground truth we use data from the monitoring stations of the Regional Environmental Protection Agency (ARPA) covering the period 2019–2022 at municipal level. The analysis compares different models and applies an Explainable Artificial Intelligence approach to evaluate the role of individual features in the model. The best model reaches an average (Formula presented.) of 0.84 ± 0.01 and MAE of 5.00 ± 0.01 (Formula presented.) g/m3 across all pollutants which compare well with the body of literature. The XAI analysis highlights the pivotal role of satellite and climate reanalysis data. Our work can facilitate One Health surveys and help researchers and policy makers. © 2024 by the authors.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10.3390/rs16071206</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>evaluating explainable artificial intelligence tools for hard disk drive predictive maintenance</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ferraro, A; Galli, A; Moscato, V; Sperli, G</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ARTIFICIAL INTELLIGENCE REVIEW</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>In the last years, one of the main challenges in Industry 4.0 concerns maintenance operations optimization, which has been widely dealt with several predictive maintenance frameworks aiming to jointly reduce maintenance costs and downtime intervals. Nevertheless, the most recent and effective frameworks mainly rely on deep learning models, but their internal representations (black box) are too complex for human understanding making difficult explain their predictions. This issue can be challenged by using eXplainable artificial intelligence (XAI) methodologies, the aim of which is to explain the decisions of data-driven AI models, characterizing the strengths and weaknesses of the decision-making process by making results more understandable by humans. In this paper, we focus on explanation of the predictions made by a recurrent neural networks based model, which requires a tree-dimensional dataset because it exploits spatial and temporal features for estimating remaining useful life (RUL) of hard disk drives (HDDs). In particular, we have analyzed in depth as explanations about RUL prediction provided by different XAI tools, compared using different metrics and showing the generated dashboards, can be really useful for supporting predictive maintenance task by means of both global and local explanations. For this aim, we have realized an explanation framework able to investigate local interpretable model-agnostic explanations (LIME) and SHapley Additive exPlanations (SHAP) tools w.r.t. to the Backblaze Dataset and a long short-term memory (LSTM) prediction model. The achieved results show how SHAP outperforms LIME in almost all the considered metrics, resulting a suitable and effective solution for HDD predictive maintenance applications.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>10.1007/s10462-022-10354-7</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>evidence-based clinical engineering: health information technology adverse events identification and classification with natural language processing</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Luschi A.; Nesi P.; Iadanza E.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Heliyon</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>The primary goal of this project is to create a framework to extract Real-World Evidence to support Health Technology Assessment, Health Technology Management, Evidence-Based Maintenance, and Post Market Surveillance (as outlined in the EU Medical Device Regulation 2017/745) of medical devices using Natural Language Processing (NLP) and Artificial Intelligence. An initial literature review on Spontaneous Reporting System databases, Health Information Technologies (HIT) fault classification, and Natural Language Processing has been conducted, from which it clearly emerges that adverse events related to HIT are increasing over time. The proposed framework uses NLP techniques and Explainable Artificial Intelligence models to automatically identify HIT-related adverse event reports. The designed model employs a pre-trained version of ClinicalBERT that has been fine-tuned and tested on 3,075 adverse event reports extracted from the FDA MAUDE database and manually labelled by experts. © 2023 The Author(s)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10.1016/j.heliyon.2023.e21723</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>explainable ai and transformer models: unraveling the nutritional influences on alzheimer's disease mortality</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Liu Z.; Liu L.; Heidel R.E.; Zhao X.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Smart Health</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>This pioneering study introduces the use of transformer-based machine learning models and explainable AI approaches to explore the impact of nutrition on Alzheimer's disease (AD) mortality. Using data from the Third National Health and Nutrition Examination Survey (Nhanes iii 1988 to 1994) and the NHANES III Mortality-Linked File (2019) databases, we investigate the intricate relationship between various nutritional factors and AD mortality. Our approach features a novel application of transformer models, which are then benchmarked against established methods like random forests and support vector machines. This comparison not only underscores the strengths of transformer models in handling complex medical datasets but also highlights their potential for providing deeper insights into disease progression. Key findings, such as the significant roles of Platelet distribution width in AD mortality in transformer and Serum Vitamin B12 in random forest, are enhanced by the use of Explainable Artificial Intelligence (XAI), particularly the Shapley Additive Explanations (SHAP) and the integrated gradient methods. This study serves as a vital step forward in applying advanced AI techniques to medical research, offering new perspectives in understanding and combating Alzheimer's Disease. © 2024</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10.1016/j.smhl.2024.100478</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>explainable ai for clinical and remote health applications: a survey on tabular and time series data</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Di Martino F.; Delmastro F.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence Review</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Nowadays Artificial Intelligence (AI) has become a fundamental component of healthcare applications, both clinical and remote, but the best performing AI systems are often too complex to be self-explaining. Explainable AI (XAI) techniques are defined to unveil the reasoning behind the system’s predictions and decisions, and they become even more critical when dealing with sensitive and personal health data. It is worth noting that XAI has not gathered the same attention across different research areas and data types, especially in healthcare. In particular, many clinical and remote health applications are based on tabular and time series data, respectively, and XAI is not commonly analysed on these data types, while computer vision and Natural Language Processing (NLP) are the reference applications. To provide an overview of XAI methods that are most suitable for tabular and time series data in the healthcare domain, this paper provides a review of the literature in the last 5 years, illustrating the type of generated explanations and the efforts provided to evaluate their relevance and quality. Specifically, we identify clinical validation, consistency assessment, objective and standardised quality evaluation, and human-centered quality assessment as key features to ensure effective explanations for the end users. Finally, we highlight the main research challenges in the field as well as the limitations of existing XAI methods. © 2022, The Author(s).</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>10.1007/s10462-022-10304-3</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>explainable ai for healthcare 5.0: opportunities and challenges</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Saraswat D.; Bhattacharya P.; Verma A.; Prasad V.K.; Tanwar S.; Sharma G.; Bokoro P.N.; Sharma R.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>In the healthcare domain, a transformative shift is envisioned towards Healthcare 5.0. It expands the operational boundaries of Healthcare 4.0 and leverages patient-centric digital wellness. Healthcare 5.0 focuses on real-time patient monitoring, ambient control and wellness, and privacy compliance through assisted technologies like artificial intelligence (AI), Internet-of-Things (IoT), big data, and assisted networking channels. However, healthcare operational procedures, verifiability of prediction models, resilience, and lack of ethical and regulatory frameworks are potential hindrances to the realization of Healthcare 5.0. Recently, explainable AI (EXAI) has been a disruptive trend in AI that focuses on the explainability of traditional AI models by leveraging the decision-making of the models and prediction outputs. The explainability factor opens new opportunities to the black-box models and brings confidence in healthcare stakeholders to interpret the machine learning (ML) and deep learning (DL) models. EXAI is focused on improving clinical health practices and brings transparency to the predictive analysis, which is crucial in the healthcare domain. Recent surveys on EXAI in healthcare have not significantly focused on the data analysis and interpretation of models, which lowers its practical deployment opportunities. Owing to the gap, the proposed survey explicitly details the requirements of EXAI in Healthcare 5.0, the operational and data collection process. Based on the review method and presented research questions, systematically, the article unfolds a proposed architecture that presents an EXAI ensemble on the computerized tomography (CT) image classification and segmentation process. A solution taxonomy of EXAI in Healthcare 5.0 is proposed, and operational challenges are presented. A supported case study on electrocardiogram (ECG) monitoring is presented that preserves the privacy of local models via federated learning (FL) and EXAI for metric validation. The case-study is supported through experimental validation. The analysis proves the efficacy of EXAI in health setups that envisions real-life model deployments in a wide range of clinical applications. © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2022.3197671</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>explainable ai for intrusion detection systems: lime and shap applicability on multi-layer perceptron</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Gaspar D.; Silva P.; Silva C.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Machine learning-based systems have presented increasing learning performance, in a wide variety of tasks. However, the problem with some state-of-the-art models is their lack of transparency, trustworthiness, and explainability. To address this problem, eXplainable Artificial Intelligence (XAI) appeared. It is a research field that aims to make black-box models more understandable to humans. The research on this topic has increased in recent years, and many methods, such as LIME (Local Interpretable Model-Agnostic Explanations) and SHAP (SHapley Additive exPlanations) have been proposed. Machine learning-based Intrusion Detection Systems (IDS) are one of the many application domains of XAI. However, most of the works about model interpretation focus on other fields, like computer vision, natural language processing, biology, healthcare, etc. This poses a challenge for cybersecurity professionals tasked with analyzing IDS results, thereby impeding their capacity to make informed decisions. In an attempt to address this problem, we have selected two XAI methods, LIME, and SHAP. Using the methods, we have retrieved explanations for the results of a black-box model, part of an IDS solution that performs intrusion detection on IoT devices, increasing its interpretability. In order to validate the explanations, we carried out a perturbation analysis where we tried to obtain a different classification based on the features present in the explanations. With the explanations and the perturbation analysis we were able to draw conclusions about the negative impact of particular features on the model results when present in the input data, making it easier for cybersecurity experts when analyzing the model results and it serves as an aid to the continuous improvement the model. The perturbations also serve as a comparison of performance between LIME and SHAP. To evaluate the degree of interpretability increase, and the explanations provided by each XAI method of the model and directly compare the XAI methods, we have performed a survey analysis.  © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2024.3368377</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>explainable ai in healthcare: unboxing machine learning for biomedicine</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Raval M.S.; Roy M.; Kaya T.; Kapdi R.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Explainable AI in Healthcare: Unboxing Machine Learning for Biomedicine</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>This book combines technology and the medical domain. It covers advances in computer vision (CV) and machine learning (ML) that facilitate automation in diagnostics and therapeutic and preventive health care. The special focus on explainable Artificial Intelligence (XAI) uncovers the black box of ML and bridges the semantic gap between the technologists and the medical fraternity. Explainable AI in Healthcare: Unboxing Machine Learning for Biomedicine intends to be a premier reference for practitioners, researchers, and students at basic, intermediary levels and expert levels in computer science, electronics and communications, information technology, instrumentation and control, and electrical engineering. This book will benefit readers in the following ways: Explores state of art in computer vision and deep learning in tandem to develop autonomous or semi-autonomous algorithms for diagnosis in health care Investigates bridges between computer scientists and physicians being built with XAI Focuses on how data analysis provides the rationale to deal with the challenges of healthcare and making decision-making more transparent Initiates discussions on human-AI relationships in health care Unites learning for privacy preservation in health care © 2024 selection and editorial matter, Mehul S Raval, Mohendra Roy, Tolga Kaya, Rupal Kapdi; individual chapters, the contributors.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>10.1201/9781003333425</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>explainable ai-powered iot systems for predictive and preventive healthcare - a framework for personalized health management and wellness optimization</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Kumbhar U.T.; Phursule R.; Patil V.C.; Moje R.K.; Shete O.R.; Tayal M.A.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Journal of Electrical Systems</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>With the growing integration of Internet of Things (IoT) technologies and Artificial Intelligence (AI) in healthcare, it is crucial to prioritize transparency and interpretability in the decision-making process. This paper presents a novel framework that utilizes Explainable AI (XAI) to improve the interpretability of predictive healthcare models. The proposed system integrates feature importance-based methodologies with the Local Interpretable Model-agnostic Explanations (LIME) technique to offer a comprehensive comprehension of the predictive and preventive healthcare recommendations. The framework commences by conducting an in-depth examination of the present condition of Internet of Things (IoT) in the healthcare sector, as well as the importance of predictive and preventive healthcare. The literature review examines the difficulties related to the comprehensibility of artificial intelligence (AI) in the healthcare field and presents feature importance-based approaches and LIME as potential remedies. The focus is on the hybrid approach that combines these techniques, as it has the potential to offer precise predictions while also ensuring a strong level of interpretability. The methodology section delineates the procedure for gathering healthcare data and IoT sensor data, subsequently followed by preprocessing measures such as data cleansing and feature engineering. The predictive models undergo a process of selection, training, and evaluation, with the primary objective of attaining a notable accuracy level of 0.961. This text provides a detailed explanation of how the combination of feature importance-based approaches and LIME improves the transparency and interpretability of the model. An extensive case study is provided to illustrate the implementation of the suggested framework in an actual situation. The results and evaluation section showcases the exceptional precision of 0.961, as well as enhanced interpretability scores and decreased computational time in comparison to the baseline XAI models. The discussion section juxtaposes the suggested hybrid approach with conventional models, examines ethical considerations, and investigates the scalability and generalizability of the framework. To conclude, the paper provides a concise overview of the findings and implications of the Explainable AI-Powered IoT Systems for Predictive and Preventive Healthcare framework. This hybrid approach demonstrates high accuracy, improved interpretability, and efficient computational performance, making it a promising advancement in personalized health management and wellness optimization. This research adds to the expanding collection of literature on Explainable Artificial Intelligence (XAI) in the healthcare sector, thus opening up possibilities for future research avenues and practical applications in this domain. © JES 2023 on-line : journal.esrgroups.org</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>10.52783/jes.648</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence (xai) in aging clock models</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kalyakulina A.; Yusipov I.; Moskalev A.; Franceschi C.; Ivanchenko M.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Ageing Research Reviews</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>XAI is a rapidly progressing field of machine learning, aiming to unravel the predictions of complex models. XAI is especially required in sensitive applications, e.g. in health care, when diagnosis, recommendations and treatment choices might rely on the decisions made by artificial intelligence systems. AI approaches have become widely used in aging research as well, in particular, in developing biological clock models and identifying biomarkers of aging and age-related diseases. However, the potential of XAI here awaits to be fully appreciated. We discuss the application of XAI for developing the “aging clocks” and present a comprehensive analysis of the literature categorized by the focus on particular physiological systems. © 2023 Elsevier B.V.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>10.1016/j.arr.2023.102144</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence (xai) in healthcare</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Kose U.; Sengoz N.; Chen X.; Saucedo J.A.M.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Explainable Artificial Intelligence (XAI) in Healthcare</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>This book highlights the use of explainable artificial intelligence (XAI) for healthcare problems, in order to improve trustworthiness, performance and sustainability levels in the context of applications. Explainable Artificial Intelligence (XAI) in Healthcare adopts the understanding that AI solutions should not only have high accuracy performance, but also be transparent, understandable and reliable from the end user's perspective. The book discusses the techniques, frameworks, and tools to effectively implement XAI methodologies in critical problems of healthcare field. The authors offer different types of solutions, evaluation methods and metrics for XAI and reveal how the concept of explainability finds a response in target problem coverage. The authors examine the use of XAI in disease diagnosis, medical imaging, health tourism, precision medicine and even drug discovery. They also point out the importance of user perspectives and value of the data used in target problems. Finally, the authors also ensure a well-defined future perspective for advancing XAI in terms of healthcare. This book will offer great benefits to students at the undergraduate and graduate levels and researchers. The book will also be useful for industry professionals and clinicians who perform critical decision-making tasks. © © 2024 selection and editorial matter, Utku Kose, Nilgun Sengoz, Xi Chen and Jose Antonio Marmolejo Saucedo. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>10.1201/9781003426073</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence (xai) with ioht for smart healthcare: a review</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Bharati S.; Mondal M.R.H.; Podder P.; Kose U.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Discussing the use of artificial intelligence (AI) in healthcare, explainability is a highly contentious topic. AI-powered systems may be superior at certain analytical tasks, but their lack of explanation continues to breed distrust. Because the majority of existing AI systems are incomprehensible and opaque, it is unlikely that AI technologies will be properly exploited and incorporated into standard clinical practice. We begin by discussing the present state of XAI development, with a focus on its applications in healthcare. Numerous IoHT-related linked health applications have been examined in XAI to establish their privacy, security, and explainability effectiveness. If we employ clinical decision assistance systems (CDAS) based on artificial intelligence, our approach will combine legal, technological, patient, and medical considerations. To gain a better grasp of the significance of explainability in clinical practice, several disciplines focus on distinct fundamental concerns and values. Explainability must be technically appraised in terms of how it could be attained and what it entails for future development. Important legal checkpoints for explainability include informed consent, certification, and licensing for medical equipment. It is important to look at the relationship between medical AI and people from both the patient’s and the doctor’s points of view. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-08637-3_1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence (xai): closing the gap between image analysis and navigation in complex invasive diagnostic procedures</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>O'Sullivan, S; Janssen, M; Holzinger, A; Nevejans, N; Eminaga, O; Meyer, CP; Miernik, A</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>WORLD JOURNAL OF UROLOGY</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Literature review Cystoscopy is the gold standard for initial macroscopic assessments of the human urinary bladder to rule out (or diagnose) bladder cancer (BCa). Despite having guidelines, cystoscopic findings are diverse and often challenging to classify. The extent of the false negatives and false positives in cystoscopic diagnosis is currently unknown. We suspect that there is a certain degree of under-diagnosis (like the failure to detect malignant tumours) and over-diagnosis (e.g. sending the patient for unnecessary transurethral resection of bladder tumors with anesthesia) that put the patient at risk. Conclusions XAI robot-assisted cystoscopes would help to overcome the risks/flaws of conventional cystoscopy. Cystoscopy is considered a less life-threatening starting point for automation than open surgical procedures. Semi-autonomous cystoscopy requires standards and cystoscopy is a good procedure to establish a model that can then be exported/copied to other procedures of endoscopy and surgery. Standards also define the automation levels-an issue for medical product law. These cystoscopy skills do not give full autonomy to the machine, and represent a surgical parallel to 'Autonomous Driving' (where a standard requires a human supervisor to remain in the 'vehicle'). Here in robotic cystoscopy, a human supervisor remains bedside in the 'operating room' as a 'human-in-the-loop' in order to safeguard patients. The urologists will be able to delegate personal- and time-consuming cystoscopy to a specialised nurse. The result of automated diagnostic cystoscopy is a short video (with pre-processed photos from the video), which are then reviewed by the urologists at a more convenient time.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>10.1007/s00345-022-03930-7</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence and cardiac imaging: toward more interpretable models</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Salih A.; Boscolo Galazzo I.; Gkontra P.; Lee A.M.; Lekadir K.; Raisi-Estabragh Z.; Petersen S.E.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Circulation: Cardiovascular Imaging</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Artificial intelligence applications have shown success in different medical and health care domains, and cardiac imaging is no exception. However, some machine learning models, especially deep learning, are considered black box as they do not provide an explanation or rationale for model outcomes. Complexity and vagueness in these models necessitate a transition to explainable artificial intelligence (XAI) methods to ensure that model results are both transparent and understandable to end users. In cardiac imaging studies, there are a limited number of papers that use XAI methodologies. This article provides a comprehensive literature review of state-of-the-art works using XAI methods for cardiac imaging. Moreover, it provides simple and comprehensive guidelines on XAI. Finally, open issues and directions for XAI in cardiac imaging are discussed.  © 2023 American Heart Association, Inc.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10.1161/CIRCIMAGING.122.014519</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence and machine learning: a reality rooted perspective</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Emmert-Streib F.; Yli-Harja O.; Dehmer M.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Wiley Interdisciplinary Reviews: Data Mining and Knowledge Discovery</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>As a consequence of technological progress, nowadays, one is used to the availability of big data generated in nearly all fields of science. However, the analysis of such data possesses vast challenges. One of these challenges relates to the explainability of methods from artificial intelligence (AI) or machine learning. Currently, many of such methods are nontransparent with respect to their working mechanism and for this reason are called black box models, most notably deep learning methods. However, it has been realized that this constitutes severe problems for a number of fields including the health sciences and criminal justice and arguments have been brought forward in favor of an explainable AI (XAI). In this paper, we do not assume the usual perspective presenting XAI as it should be, but rather provide a discussion what XAI can be. The difference is that we do not present wishful thinking but reality grounded properties in relation to a scientific theory beyond physics. This article is categorized under: Fundamental Concepts of Data and Knowledge &gt; Explainable AI Algorithmic Development &gt; Statistics Technologies &gt; Machine Learning. © 2020 Wiley Periodicals LLC.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10.1002/widm.1368</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence for biomedical applications</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Kose U.; Gupta D.; Chen X.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Explainable Artificial Intelligence for Biomedical Applications</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Since its first appearance, artificial intelligence has been ensuring revolutionary outcomes in the context of real-world problems. At this point, it has strong relations with biomedical and today's intelligent systems compete with human capabilities in medical tasks. However, advanced use of artificial intelligence causes intelligent systems to be black-box. That situation is not good for building trustworthy intelligent systems in medical applications. For a remarkable amount of time, researchers have tried to solve the black-box issue by using modular additions, which have led to the rise of the term: interpretable artificial intelligence. As the literature matured (as a result of, in particular, deep learning), that term transformed into explainable artificial intelligence (XAI). This book provides an essential edited work regarding the latest advancements in explainable artificial intelligence (XAI) for biomedical applications. It includes not only introductive perspectives but also applied touches and discussions regarding critical problems as well as future insights. Topics discussed in the book include: XAI for the applications with medical images XAI use cases for alternative medical data/task Different XAI methods for biomedical applications Reviews for the XAI research for critical biomedical problems. Explainable Artificial Intelligence for Biomedical Applications is ideal for academicians, researchers, students, engineers, and experts from the fields of computer science, biomedical, medical, and health sciences. It also welcomes all readers of different fields to be informed about use cases of XAI in black-box artificial intelligence. In this sense, the book can be used for both teaching and reference source purposes. © 2023 River Publishers. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence for human decision support system in the medical domain</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Knapič S.; Malhi A.; Saluja R.; Främling K.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Machine Learning and Knowledge Extraction</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>In this paper, we present the potential of Explainable Artificial Intelligence methods for decision support in medical image analysis scenarios. Using three types of explainable methods applied to the same medical image data set, we aimed to improve the comprehensibility of the decisions provided by the Convolutional Neural Network (CNN). In vivo gastral images obtained by a video capsule endoscopy (VCE) were the subject of visual explanations, with the goal of increasing health professionals’ trust in black-box predictions. We implemented two post hoc interpretable machine learning methods, called Local Interpretable Model-Agnostic Explanations (LIME) and SHapley Additive exPlanations (SHAP), and an alternative explanation approach, the Contextual Importance and Utility (CIU) method. The produced explanations were assessed by human evaluation. We conducted three user studies based on explanations provided by LIME, SHAP and CIU. Users from different non-medical backgrounds carried out a series of tests in a web-based survey setting and stated their experience and understanding of the given explanations. Three user groups (n = 20, 20, 20) with three distinct forms of explanations were quantitatively analyzed. We found that, as hypothesized, the CIU-explainable method performed better than both LIME and SHAP methods in terms of improving support for human decision-making and being more transparent and thus understandable to users. Additionally, CIU outperformed LIME and SHAP by generating explanations more rapidly. Our findings suggest that there are notable differences in human decision-making between various explanation support settings. In line with that, we present three potential explainable methods that, with future improvements in implementation, can be generalized to different medical data sets and can provide effective decision support to medical experts. © 2021 by the authors.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>10.3390/make3030037</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence in healthcare applications: a systematic review</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Costa B.; Georgieva P.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2023 11th International Scientific Conference on Computer Science, COMSCI 2023 - Proceedings</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Current artificial intelligence (AI) advances and progress in medicine created a new challenge for medical AI. The' black-box' nature of AI methods has created a discussion on the use of explainability techniques to build trust and provide transparency in the AI decision-making process. A study of current state-of-the-art approaches in Explainable Artificial Intelligence (XAI) was conducted using Preferred Reporting Items on Systematic Reviews and Meta-analysis (PRISMA) research technology. In this systematic review, we provide an overview of current XAI techniques based on different taxonomies. Finally, we discuss the applications and challenges that come with the application of explainability methods in the healthcare industry. © 2023 IEEE.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>10.1109/COMSCI59259.2023.10315829</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence methods in combating pandemics: a systematic review</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Giuste F.; Shi W.; Zhu Y.; Naren T.; Isgut M.; Sha Y.; Tong L.; Gupte M.; Wang M.D.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>IEEE Reviews in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Despite the myriad peer-reviewed papers demonstrating novel Artificial Intelligence (AI)-based solutions to COVID-19 challenges during the pandemic, few have made a significant clinical impact, especially in diagnosis and disease precision staging. One major cause for such low impact is the lack of model transparency, significantly limiting the AI adoption in real clinical practice. To solve this problem, AI models need to be explained to users. Thus, we have conducted a comprehensive study of Explainable Artificial Intelligence (XAI) using PRISMA technology. Our findings suggest that XAI can improve model performance, instill trust in the users, and assist users in decision-making. In this systematic review, we introduce common XAI techniques and their utility with specific examples of their application. We discuss the evaluation of XAI results because it is an important step for maximizing the value of AI-based clinical decision support systems. Additionally, we present the traditional, modern, and advanced XAI models to demonstrate the evolution of novel techniques. Finally, we provide a best practice guideline that developers can refer to during the model experimentation. We also offer potential solutions with specific examples for common challenges in AI model experimentation. This comprehensive review, hopefully, can promote AI adoption in biomedicine and healthcare.  © 2008-2011 IEEE.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>10.1109/RBME.2022.3185953</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence models using real-world electronic health record data: a systematic scoping review</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Payrovnaziri S.N.; Chen Z.; Rengifo-Moreno P.; Miller T.; Bian J.; Chen J.H.; Liu X.; He Z.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Journal of the American Medical Informatics Association</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Objective: To conduct a systematic scoping review of explainable artificial intelligence (XAI) models that use real-world electronic health record data, categorize these techniques according to different biomedical applications, identify gaps of current studies, and suggest future research directions. Materials and Methods: We searched MEDLINE, IEEE Xplore, and the Association for Computing Machinery (ACM) Digital Library to identify relevant papers published between January 1, 2009 and May 1, 2019. We summarized these studies based on the year of publication, prediction tasks, machine learning algorithm, dataset(s) used to build the models, the scope, category, and evaluation of the XAI methods. We further assessed the reproducibility of the studies in terms of the availability of data and code and discussed open issues and challenges. Results: Forty-two articles were included in this review. We reported the research trend and most-studied diseases. We grouped XAI methods into 5 categories: knowledge distillation and rule extraction (N = 13), intrinsically interpretable models (N = 9), data dimensionality reduction (N = 8), attention mechanism (N = 7), and feature interaction and importance (N = 5). Discussion: XAI evaluation is an open issue that requires a deeper focus in the case of medical applications. We also discuss the importance of reproducibility of research work in this field, as well as the challenges and opportunities of XAI from 2 medical professionals' point of view. Conclusion: Based on our review, we found that XAI evaluation in medicine has not been adequately and formally practiced. Reproducibility remains a critical concern. Ample opportunities exist to advance XAI research in medicine.  © 2020 The Author(s) 2020. Published by Oxford University Press on behalf of the American Medical Informatics Association. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>10.1093/jamia/ocaa053</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence to advance structural health monitoring</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Luckey D.; Fritz H.; Legatiuk D.; Peralta Abadía J.J.; Walther C.; Smarsly K.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Structural Integrity</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>In recent years, structural health monitoring (SHM) applications have significantly been enhanced, driven by advancements in artificial intelligence (AI) and machine learning (ML), a subcategory of AI. Although ML algorithms allow detecting patterns and features in sensor data that would otherwise remain undetected, the generally opaque inner processes and black-box character of ML algorithms are limiting the application of ML to SHM. Incomprehensible decision-making processes often result in doubts and mistrust in ML algorithms, expressed by engineers and stakeholders. In an attempt to increase trust in ML algorithms, explainable artificial intelligence (XAI) aims to provide explanations of decisions made by black-box ML algorithms. However, there is a lack of XAI approaches that meet all requirements of SHM applications. This chapter provides a review of ML and XAI approaches relevant to SHM and proposes a conceptual XAI framework pertinent to SHM applications. First, ML algorithms relevant to SHM are categorized. Next, XAI approaches, such as transparent models and model-specific explanations, are presented and categorized to identify XAI approaches appropriate for being implemented in SHM applications. Finally, based on the categorization of ML algorithms and the presentation of XAI approaches, the conceptual XAI framework is introduced. It is expected that the proposed conceptual XAI framework will provide a basis for improving ML acceptance and transparency and therefore increase trust in ML algorithms implemented in SHM applications. © 2022, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-030-81716-9_16</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence to increase transparency for revolutionizing healthcare ecosystem and the road ahead</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Roy S.; Pal D.; Meena T.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Network Modeling Analysis in Health Informatics and Bioinformatics</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>The integration of deep learning (DL) into co-clinical applications has generated substantial interest among researchers aiming to enhance clinical decision support systems for various aspects of disease management, including detection, prediction, diagnosis, treatment, and therapy. However, the inherent opacity of DL methods has raised concerns within the healthcare community, particularly in high-risk or complex medical domains. There exists a significant gap in research and understanding when it comes to elucidating and rendering transparent the inner workings of DL models applied to the analysis of medical images. While explainable artificial intelligence (XAI) has gained ground in diverse fields, including healthcare, numerous unexplored facets remain within the realm of medical imaging. To better understand the complexities of DL techniques, there is an urgent need for rapid advancement in the field of eXplainable DL (XDL) or eXplainable Artificial Intelligence (XAI). This would empower healthcare professionals to comprehend, assess, and contribute to decision-making processes before taking any actions. This viewpoint article conducts an extensive review of XAI and XDL, shedding light on methods for unveiling the “black-box” nature of DL. Additionally, it explores the adaptability of techniques originally designed for solving problems across diverse domains for addressing healthcare challenges. The article also delves into how physicians can interpret and comprehend data-driven technologies effectively. This comprehensive literature review serves as a valuable resource for scientists and medical practitioners, offering insights into both technical and clinical aspects. It assists in identifying methods to make XAI and XDL models more comprehensible, enabling wise model choices based on particular requirements and goals. © 2023, The Author(s), under exclusive licence to Springer-Verlag GmbH Austria, part of Springer Nature.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>10.1007/s13721-023-00437-y</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence with metaheuristic feature selection technique for biomedical data classification</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Selvam R.P.; Oliver A.S.; Mohan V.; Prakash N.B.; Jayasankar T.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Intelligent Systems Reference Library</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Recently, explainable artificial intelligence (XAI) becomes a hot research topic due to its decision-making abilities in several real-time applications, particularly health care. The application of XAI approaches can be used to investigate the biomedical data for effective disease diagnosis and classification. At the same time, the high dimensionality of the healthcare data poses a curse of dimensionality problem which can be solved by the design of optimization algorithms. Therefore, this paper introduces an XAI with feature selection technique for biomedical data classification (XAIMFS-BMC). The proposed XAIMFS-BMC technique intends to proficiently categorize the biomedical data into distinct classes. In addition, the XAIMFS-BMC technique involves the design of chaotic spider monkey optimization (CSMO) algorithm for effective selection of feature subsets. Moreover, the deep neural network (DNN) is exploited for medical data classification, and its efficiency can be further improved by the use of Nadam-optimizer-based hyperparameter tuning process. The performance validation of the XAIMFS-BMC technique is tested using distinct benchmark medical dataset, and the results are inspected under several aspects. The comparative results reported the supremacy of the XAIMFS-BMC technique over the other techniques in terms of different performance measures. © 2022, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>10.1007/978-981-19-1476-8_4</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence-a new step towards the trust in medical diagnosis with ai frameworks: a review</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Deshpande, NM; Gite, S; Pradhan, B; Assiri, ME</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>CMES-COMPUTER MODELING IN ENGINEERING &amp; SCIENCES</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Machine learning (ML) has emerged as a critical enabling tool in the sciences and industry in recent years. Today's machine learning algorithms can achieve outstanding performance on an expanding variety of complex tasks-thanks to advancements in technique, the availability of enormous databases, and improved computing power. Deep learning models are at the forefront of this advancement. However, because of their nested nonlinear structure, these strong models are termed as black boxes, as they provide no information about how they arrive at their conclusions. Such a lack of transparencies may be unacceptable in many applications, such as the medical domain. A lot of emphasis has recently been paid to the development of methods for visualizing, explaining, and interpreting deep learning models. The situation is substantially different in safety-critical applications. The lack of transparency of machine learning techniques may be limiting or even disqualifying issue in this case. Significantly, when single bad decisions can endanger human life and health (e.g., autonomous driving, medical domain) or result in significant monetary losses (e.g., algorithmic trading), depending on an unintelligible data-driven system may not be an option. This lack of transparency is one reason why machine learning in sectors like health is more cautious than in the consumer, e-commerce, or entertainment industries. Explainability is the term introduced in the preceding years. The AI model's black box nature will become explainable with these frameworks. Especially in the medical domain, diagnosing a particular disease through AI techniques would be less adapted for commercial use. These models' explainable natures will help them commercially in diagnosis decisions in the medical field. This paper explores the different frameworks for the explainability of AI models in the medical field. The available frameworks are compared with other parameters, and their suitability for medical fields is also discussed.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10.32604/cmes.2022.021225</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence: a survey</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Dosilovic, FK; Brcic, M; Hlupic, N</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2018 41ST INTERNATIONAL CONVENTION ON INFORMATION AND COMMUNICATION TECHNOLOGY, ELECTRONICS AND MICROELECTRONICS (MIPRO)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>In the last decade, with availability of large datasets and more com puting power, machine learning systems have achieved (super)human performance in a wide variety of tasks. Examples of this rapid development can be seen in image recognition, speech analysis, strategic game planning and many more. The problem with many state-of-the-art models is a lack of transparency and interpretability. The lack of thereof is a major drawback in many applications, e.g. health care and finance, where rationale for model's decision is a requirement for trust. In the light of these issues, explainable artificial intelligence (XAI) has become an area of interest in research community. This paper summarizes recent developments in XAI in supervised learning, starts a discussion on its connection with artificial general intelligence, and gives proposals for further research directions.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>explainable artificial intelligence–a new step towards the trust in medical diagnosis with ai frameworks: a review</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Deshpande N.M.; Gite S.; Pradhan B.; Assiri M.E.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>CMES - Computer Modeling in Engineering and Sciences</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Machine learning (ML) has emerged as a critical enabling tool in the sciences and industry in recent years. Today’s machine learning algorithms can achieve outstanding performance on an expanding variety of complex tasks–thanks to advancements in technique, the availability of enormous databases, and improved computing power. Deep learning models are at the forefront of this advancement. However, because of their nested nonlinear structure, these strong models are termed as “black boxes,” as they provide no information about how they arrive at their conclusions. Such a lack of transparencies may be unacceptable in many applications, such as the medical domain. A lot of emphasis has recently been paid to the development of methods for visualizing, explaining, and interpreting deep learning models. The situation is substantially different in safety-critical applications. The lack of transparency of machine learning techniques may be limiting or even disqualifying issue in this case. Significantly, when single bad decisions can endanger human life and health (e.g., autonomous driving, medical domain) or result in significant monetary losses (e.g., algorithmic trading), depending on an unintelligible data-driven system may not be an option. This lack of transparency is one reason why machine learning in sectors like health is more cautious than in the consumer, e-commerce, or entertainment industries. Explainability is the term introduced in the preceding years. The AI model’s black box nature will become explainable with these frameworks. Especially in the medical domain, diagnosing a particular disease through AI techniques would be less adapted for commercial use. These models’ explainable natures will help them commercially in diagnosis decisions in the medical field. This paper explores the different frameworks for the explainability of AI models in the medical field. The available frameworks are compared with other parameters, and their suitability for medical fields is also discussed. © 2022 Tech Science Press. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10.32604/cmes.2022.021225</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>explainable biological age (enabl age): an artificial intelligence framework for interpretable biological age</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Qiu W.; Chen H.; Kaeberlein M.; Lee S.-I.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>The Lancet Healthy Longevity</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Background: Biological age is a measure of health that offers insights into ageing. The existing age clocks, although valuable, often trade off accuracy and interpretability. We introduce ExplaiNAble BioLogical Age (ENABL Age), a computational framework that combines machine-learning models with explainable artificial intelligence (XAI) methods to accurately estimate biological age with individualised explanations. Methods: To construct the ENABL Age clock, we first predicted an age-related outcome (eg, all-cause or cause-specific mortality), and then rescaled these predictions to estimate biological age, using UK Biobank and National Health and Nutrition Examination Survey (NHANES) datasets. We adapted existing XAI methods to decompose individual ENABL Ages into contributing risk factors. For broad accessibility, we developed two versions: ENABL Age-L, based on blood tests, and ENABL Age-Q, based on questionnaire characteristics. Finally, we validated diverse ageing mechanisms captured by each ENABL Age clock through genome-wide association studies (GWAS) association analyses. Findings: Our ENABL Age clock was significantly correlated with chronological age (r=0·7867, p&lt;0·0001 for UK Biobank; r=0·7126, p&lt;0·0001 for NHANES). These clocks distinguish individuals who are healthy (ie, their ENABL Age is lower than their chronological age) from those who are unhealthy (ie, their ENABL Age is higher than their chronological age), predicting mortality more effectively than existing clocks. Groups of individuals who were unhealthy showed approximately three to 12 times higher log hazard ratio than healthy groups, as per ENABL Age. The clocks achieved high mortality prediction power with an area under the receiver operating characteristic curve of 0·8179 for 5-year mortality and 0·8115 for 10-year mortality on the UK Biobank dataset, and 0·8935 for 5-year mortality and 0·9107 for 10-year mortality on the NHANES dataset. The individualised explanations that revealed the contribution of specific characteristics to ENABL Age provided insights into the important characteristics for ageing. An association analysis with risk factors and ageing-related morbidities and GWAS results on ENABL Age clocks trained on different mortality causes showed that each clock captures distinct ageing mechanisms. Interpretation: ENABL Age brings an important leap forward in the application of XAI for interpreting biological age clocks. ENABL Age also carries substantial potential in practical settings, assisting medical professionals in untangling the complexity of ageing mechanisms, and potentially becoming a valuable tool in informed clinical decision-making processes. Funding: National Science Foundation and National Institutes of Health. © 2023 The Author(s). Published by Elsevier Ltd. This is an Open Access article under the CC BY-NC-ND 4.0 license</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10.1016/S2666-7568(23)00189-7</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>explainable machine learning for breast cancer diagnosis from mammography and ultrasound images: a systematic review</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Gurmessa D.K.; Jimma W.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>BMJ Health and Care Informatics</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Background Breast cancer is the most common disease in women. Recently, explainable artificial intelligence (XAI) approaches have been dedicated to investigate breast cancer. An overwhelming study has been done on XAI for breast cancer. Therefore, this study aims to review an XAI for breast cancer diagnosis from mammography and ultrasound (US) images. We investigated how XAI methods for breast cancer diagnosis have been evaluated, the existing ethical challenges, research gaps, the XAI used and the relation between the accuracy and explainability of algorithms. Methods In this work, Preferred Reporting Items for Systematic Reviews and Meta-Analyses checklist and diagram were used. Peer-reviewed articles and conference proceedings from PubMed, IEEE Explore, ScienceDirect, Scopus and Google Scholar databases were searched. There is no stated date limit to filter the papers. The papers were searched on 19 September 2023, using various combinations of the search terms € breast cancer', € explainable', € interpretable', € machine learning', € artificial intelligence' and € XAI'. Rayyan online platform detected duplicates, inclusion and exclusion of papers. Results This study identified 14 primary studies employing XAI for breast cancer diagnosis from mammography and US images. Out of the selected 14 studies, only 1 research evaluated humans' confidence in using the XAI system - additionally, 92.86% of identified papers identified dataset and dataset-related issues as research gaps and future direction. The result showed that further research and evaluation are needed to determine the most effective XAI method for breast cancer. Conclusion XAI is not conceded to increase users' and doctors' trust in the system. For the real-world application, effective and systematic evaluation of its trustworthiness in this scenario is lacking. PROSPERO registration number CRD42023458665.  © Author(s) (or their employer(s)) 2024. Re-use permitted under CC BY-NC. No commercial re-use. See rights and permissions. Published by BMJ.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10.1136/bmjhci-2023-100954</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>explainable mortality prediction model for congestive heart failure with nature-based feature selection method</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tasnim N.; Al Mamun S.; Shahidul Islam M.; Kaiser M.S.; Mahmud M.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Applied Sciences (Switzerland)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>A mortality prediction model can be a great tool to assist physicians in decision making in the intensive care unit (ICU) in order to ensure optimal allocation of ICU resources according to the patient’s health conditions. The entire world witnessed a severe ICU patient capacity crisis a few years ago during the COVID-19 pandemic. Various widely utilized machine learning (ML) models in this research field can provide poor performance due to a lack of proper feature selection. Despite the fact that nature-based algorithms in other sectors perform well for feature selection, no comparative study on the performance of nature-based algorithms in feature selection has been conducted in the ICU mortality prediction field. Therefore, in this research, a comparison of the performance of ML models with and without feature selection was performed. In addition, explainable artificial intelligence (AI) was used to examine the contribution of features to the decision-making process. Explainable AI focuses on establishing transparency and traceability for statistical black-box machine learning techniques. Explainable AI is essential in the medical industry to foster public confidence and trust in machine learning model predictions. Three nature-based algorithms, namely the flower pollination algorithm (FPA), particle swarm algorithm (PSO), and genetic algorithm (GA), were used in this study. For the classification job, the most widely used and diversified classifiers from the literature were used, including logistic regression (LR), decision tree (DT) classifier, the gradient boosting (GB) algorithm, and the random forest (RF) algorithm. The Medical Information Mart for Intensive Care III (MIMIC-III) dataset was used to collect data on heart failure patients. On the MIMIC-III dataset, it was discovered that feature selection significantly improved the performance of the described ML models. Without applying any feature selection process on the MIMIC-III heart failure patient dataset, the accuracy of the four mentioned ML models, namely LR, DT, RF, and GB was 69.9%, 82.5%, 90.6%, and 91.0%, respectively, whereas with feature selection in combination with the FPA, the accuracy increased to 71.6%, 84.8%, 92.8%, and 91.1%, respectively, for the same dataset. Again, the FPA showed the highest area under the receiver operating characteristic (AUROC) value of 83.0% with the RF algorithm among all other algorithms utilized in this study. Thus, it can be concluded that the use of feature selection with FPA has a profound impact on the outcome of ML models. Shapley additive explanation (SHAP) was used in this study to interpret the ML models. SHAP was used in this study because it offers mathematical assurances for the precision and consistency of explanations. It is trustworthy and suitable for both local and global explanations. It was found that the features that were selected by SHAP as most important were also most common with the features selected by the FPA. Therefore, we hope that this study will help physicians to predict ICU mortality for heart failure patients with a limited number of features and with high accuracy. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10.3390/app13106138</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>explainable predictive maintenance: a survey of current methods, challenges and opportunities</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Cummins L.; Sommers A.; Ramezani S.B.; Mittal S.; Jabour J.; Seale M.; Rahimi S.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Predictive maintenance is a well studied collection of techniques that aims to prolong the life of a mechanical system by using artificial intelligence and machine learning to predict the optimal time to perform maintenance. The methods allow maintainers of systems and hardware to reduce financial and time costs of upkeep. As these methods are adopted for more serious and potentially life-threatening applications, the human operators need trust the predictive system. This attracts the field of Explainable AI (XAI) to introduce explainability and interpretability into the predictive system. XAI brings methods to the field of predictive maintenance that can amplify trust in the users while maintaining well-performing systems. This survey on explainable predictive maintenance (XPM) discusses and presents the current methods of XAI as applied to predictive maintenance while following the Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA) 2020 guidelines. We categorize the different XPM methods into groups that follow the XAI literature. Additionally, we include current challenges and a discussion on future research directions in XPM.  © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2024.3391130</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>explainable recommendations in intelligent systems: delivery methods, modalities and risks</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Naiseh M.; Jiang N.; Ma J.; Ali R.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Business Information Processing</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>With the increase in data volume, velocity and types, intelligent human-agent systems have become popular and adopted in different application domains, including critical and sensitive areas such as health and security. Humans’ trust, their consent and receptiveness to recommendations are the main requirement for the success of such services. Recently, the demand on explaining the recommendations to humans has increased both from humans interacting with these systems so that they make an informed decision and, also, owners and systems managers to increase transparency and consequently trust and users’ retention. Existing systematic reviews in the area of explainable recommendations focused on the goal of providing explanations, their presentation and informational content. In this paper, we review the literature with a focus on two user experience facets of explanations; delivery methods and modalities. We then focus on the risks of explanation both on user experience and their decision making. Our review revealed that explanations delivery to end-users is mostly designed to be along with the recommendation in a push and pull styles while archiving explanations for later accountability and traceability is still limited. We also found that the emphasis was mainly on the benefits of recommendations while risks and potential concerns, such as over-reliance on machines, is still a new area to explore. © 2020, Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-030-50316-1_13</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>explainable, domain-adaptive, and federated artificial intelligence in medicine</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Chaddad A.; Lu Q.; Li J.; Katib Y.; Kateb R.; Tanougast C.; Bouridane A.; Abdulkadir A.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>IEEE/CAA Journal of Automatica Sinica</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Artificial intelligence (AI) continues to transform data analysis in many domains. Progress in each domain is driven by a growing body of annotated data, increased computational resources, and technological innovations. In medicine, the sensitivity of the data, the complexity of the tasks, the potentially high stakes, and a requirement of accountability give rise to a particular set of challenges. In this review, we focus on three key methodological approaches that address some of the particular challenges in AI-driven medical decision making. 1) Explainable AI aims to produce a human-interpretable justification for each output. Such models increase confidence if the results appear plausible and match the clinicians expectations. However, the absence of a plausible explanation does not imply an inaccurate model. Especially in highly non-linear, complex models that are tuned to maximize accuracy, such interpretable representations only reflect a small portion of the justification. 2) Domain adaptation and transfer learning enable AI models to be trained and applied across multiple domains. For example, a classification task based on images acquired on different acquisition hardware. 3) Federated learning enables learning large-scale models without exposing sensitive personal health information. Unlike centralized AI learning, where the centralized learning machine has access to the entire training data, the federated learning process iteratively updates models across multiple sites by exchanging only parameter updates, not personal health data. This narrative review covers the basic concepts, highlights relevant corner-stone and state-of-the-art research in the field, and discusses perspectives.  © 2014 Chinese Association of Automation.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10.1109/JAS.2023.123123</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>explanations for attributing deep neural network predictions</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Fong R.; Vedaldi A.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Given the recent success of deep neural networks and their applications to more high impact and high risk applications, like autonomous driving and healthcare decision-making, there is a great need for faithful and interpretable explanations of “why” an algorithm is making a certain prediction. In this chapter, we introduce 1. Meta-Predictors as Explanations, a principled framework for learning explanations for any black box algorithm, and 2. Meaningful Perturbations, an instantiation of our paradigm applied to the problem of attribution, which is concerned with attributing what features of an input (i.e., regions of an input image) are responsible for a model’s output (i.e., a CNN classifier’s object class prediction). We first introduced these contributions in [8]. We also briefly survey existing visual attribution methods and highlight how they faith to be both faithful and interpretable. © Springer Nature Switzerland AG 2019.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-030-28954-6_8</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>exploring huntington’s disease diagnosis via artificial intelligence models: a comprehensive review</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ganesh S.; Chithambaram T.; Krishnan N.R.; Vincent D.R.; Kaliappan J.; Srinivasan K.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Huntington’s Disease (HD) is a devastating neurodegenerative disorder characterized by progressive motor dysfunction, cognitive impairment, and psychiatric symptoms. The early and accurate diagnosis of HD is crucial for effective intervention and patient care. This comprehensive review provides a comprehensive overview of the utilization of Artificial Intelligence (AI) powered algorithms in the diagnosis of HD. This review systematically analyses the existing literature to identify key trends, methodologies, and challenges in this emerging field. It also highlights the potential of ML and DL approaches in automating HD diagnosis through the analysis of clinical, genetic, and neuroimaging data. This review also discusses the limitations and ethical considerations associated with these models and suggests future research directions aimed at improving the early detection and management of Huntington’s disease. It also serves as a valuable resource for researchers, clinicians, and healthcare professionals interested in the intersection of machine learning and neurodegenerative disease diagnosis. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10.3390/diagnostics13233592</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>exploring interpretable machine learning methods and biomarkers to classifying occupational stress of the health workers</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Morales A.S.; de Oliveira Ourique F.; Morás L.D.; Cazella S.C.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Intelligent Systems Reference Library</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Occupational stress is present in all professions but poses a high risk to health professionals’ performance when it becomes bad stress (distress). This chapter presents issues related to monitoring health professionals’ stress through wearable devices, focusing on research into the use of biomarkers and machine learning techniques used in the development of models that can help in decision-making related to coping with distress. Results from a literature review on these topics are reported. Challenges related to explainable Artificial Intelligence are addressed in the chapter, and challenges associated with the definition of a stress classification at different levels seek that, to identify the impacts on the health of the health professional. As the main contribution, this chapter presents a proposal for an intelligent system, the result of ongoing research, which helps in recommending actions according to the level of perceived stress, in an explainable, transparent way that is reliable for adoption by these professionals' managers. Challenges related to the intelligent system implementation itself, such as the security and privacy of user information in the foreseen layers of the Health Internet of Things solution architecture, are described for reflection. © 2022, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-030-97516-6_6</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>exploring the trade-offs between blackbox and explainable ai: a comparative study</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Makubhai S.S.; Pathak G.R.; Chandre P.R.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2023 7th International Conference On Computing, Communication, Control And Automation, ICCUBEA 2023</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Healthcare, finance, and transportation are just a few of the sectors where artificial intelligence (AI) is now a necessity. AI algorithms come in two flavors: explainable and blackbox. Explainable models are intended to be more transparent and interpretable than blackbox models, which are complicated and challenging to understand. Through a comparative analysis, this article investigates the trade-offs between explainable AI and blackbox AI. It specifically looks into how explainability affects accuracy, user perception of AI models, the efficiency of explainability methods, domain-specific effects, and ethical ramifications. The study seeks to offer useful insights into the advantages and disadvantages of these models and to assist in guiding decisions regarding the use of explainable and blackbox AI in various applications.  © 2023 IEEE.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>10.1109/ICCUBEA58933.2023.10391996</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>giving diana more time – guidance for the design of xai-based medical decision support systems</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Bunde E.; Eisenhardt D.; Sonntag D.; Profitlich H.-J.; Meske C.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Future healthcare ecosystems integrating human-centered artificial intelligence (AI) will be indispensable. AI-based healthcare technologies can support diagnosis processes and make healthcare more accessible globally. In this context, we conducted a design science research project intending to introduce design principles for user interfaces (UIs) of explainable AI-based (XAI) medical decision support systems (XAI-based MDSS). We used an archaeological approach to analyze the UI of an existing web-based system in the context of skin lesion classification called DIAnA (Dermatological Images – Analysis and Archiving). One of DIAnA’s unique characteristics is that it should be usable for the stakeholder groups of physicians and patients. We conducted the in-situ analysis with these stakeholders using the think-aloud method and semi-structured interviews. We anchored our interview guide in concepts of the Theory of Interactive Media Effects (TIME), which formulates UI features as causes and user psychology as effects. Based on the results, we derived 20 design requirements and developed nine design principles grounded in TIME for this class of XAI-based MDSS, either associated with the needs of physicians, patients, or both. Regarding evaluation, we first conducted semi-structured interviews with software developers to assess the reusability of our design principles. Afterward, we conducted a survey with user experience/interface designers. The evaluation uncovered that 77% of the participants would adopt the design principles, and 82% would recommend them to colleagues for a suitable project. The findings prove the reusability of the design principles and highlight a positive perception by potential implementers. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-32808-4_7</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>harnessing the power of ai in pharmacokinetics and pharmacodynamics: a comprehensive review</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Pawar V.; Patil A.; Tamboli F.; Gaikwad D.; Mali D.; Shinde A.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>International Journal of Pharmaceutical Quality Assurance</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Personalized medicine, medication discovery, and development might all benefit greatly from AI’s incorporation into pharmacokinetics and pharmacodynamics. Target identification, therapeutic effectiveness prediction, drug design optimization, obstacles, and future possibilities are all explored in this survey of AI applications in these areas. An overview of pharmacokinetics and pharmacodynamics is presented first, stressing the significance of knowing how drugs are absorbed, distributed, metabolized, and excreted and the correlation between drug concentration and pharmacological effect. The article then looks into the function of AI in target identification, exploring how machine learning algorithms and data integration may be used to discover new drug targets and enhance the design of existing ones. Classification and regression methods are also investigated for their potential use in the prediction of therapeutic efficacy using AI. Patient data, molecular interaction data, and clinical response data are just a few examples of the types of data that may be used to fuel the creation of predictive models that might assist in dosage and efficacy optimization. Metrics and procedures for validating these models are addressed to evaluate their efficacy. Additionally, de novo drug design, virtual screening, and structure-based drug design are all discussed in relation to the use of AI in optimizing drug development. The paper provides examples of how AI has been applied successfully in different settings, demonstrating its potential to hasten the drug discovery process and enhance treatment outcomes. We examine data availability, interpretability, and ethical implications as challenges and limits of AI in pharmacokinetics and pharmacodynamics. To guarantee these technologies’ proper and ethical use, we also discuss the regulatory elements and rules for applying AI in drug research. Possibilities and prospects for the use of AI in pharmacokinetics and pharmacodynamics are discussed as a conclusion to the review. It stresses the significance of regulatory standards and clinical translation, as well as the incorporation of multiomics data, deep learning methods, real-time monitoring, explainable artificial intelligence, collaborative networks, and more. © 2023, Dr. Yashwant Research Labs Pvt. Ltd.. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>10.25258/ijpqa.14.2.31</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>healthcare trust evolution with explainable artificial intelligence: bibliometric analysis</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Dhiman P.; Bonkra A.; Kaur A.; Gulzar Y.; Hamid Y.; Mir M.S.; Soomro A.B.; Elwasila O.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Information (Switzerland)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Recent developments in IoT, big data, fog and edge networks, and AI technologies have had a profound impact on a number of industries, including medical. The use of AI for therapeutic purposes has been hampered by its inexplicability. Explainable Artificial Intelligence (XAI), a revolutionary movement, has arisen to solve this constraint. By using decision-making and prediction outputs, XAI seeks to improve the explicability of standard AI models. In this study, we examined global developments in empirical XAI research in the medical field. The bibliometric analysis tools VOSviewer and Biblioshiny were used to examine 171 open access publications from the Scopus database (2019–2022). Our findings point to several prospects for growth in this area, notably in areas of medicine like diagnostic imaging. With 109 research articles using XAI for healthcare classification, prediction, and diagnosis, the USA leads the world in research output. With 88 citations, IEEE Access has the greatest number of publications of all the journals. Our extensive survey covers a range of XAI applications in healthcare, such as diagnosis, therapy, prevention, and palliation, and offers helpful insights for researchers who are interested in this field. This report provides a direction for future healthcare industry research endeavors. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10.3390/info14100541</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>hgsorf: henry gas solubility optimization-based random forest for c-section prediction and xai-based cause analysis</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Islam M.S.; Awal M.A.; Laboni J.N.; Pinki F.T.; Karmokar S.; Mumenin K.M.; Al-Ahmadi S.; Rahman M.A.; Hossain M.S.; Mirjalili S.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Computers in Biology and Medicine</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>A stable predictive model is essential for forecasting the chances of cesarean or C-section (CS) delivery, as unnecessary CS delivery can adversely affect neonatal, maternal, and pediatric morbidity and mortality, and can incur significant financial burdens. Limited state-of-the-art machine learning models have been applied in this area in recent years, and the current models are insufficient to correctly predict the probability of CS delivery. To alleviate this drawback, we have proposed a Henry gas solubility optimization (HGSO)-based random forest (RF), with an improved objective function, called HGSORF, for the classification of CS and non-CS classes. Real-world CS datasets can be noisy, such as the Pakistan Demographic and Health Survey (PDHS) dataset used in this study. The HGSO can provide fine-tuned hyperparameters of RF by avoiding local minima points. To compare performance, Gaussian Naive Bayes (GNB), linear discriminant analysis (LDA), K-nearest neighbors (KNN), gradient boosting classifier (GBC), and logistic regression (LR) have been considered in this research. The ADAptive SYNthetic (ADASYN) algorithm has been used to balance the model, and the proposed HGSORF has been compared with other classifiers as well as with other studies. The superior performance was achieved by HGSORF with an accuracy of 98.33% for the PDHS dataset. The hyperparameters of RF have also been optimized by using commonly used hyperparameter-optimization algorithms, and the proposed HGSORF provided comparatively better performance. Additionally, to analyze the causes of CS and their significance, the HGSORF is explained locally and globally using eXplainable artificial intelligence (XAI)-based tools such as SHapely Additive exPlanation (SHAP) and Local Interpretable Model-Agnostic Explanations (LIME). A decision support system has been developed as a potential application to support clinical staffs. All pre-trained models and relevant codes are available on: https://github.com/MIrazul29/HGSORF_CSection. © 2022 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10.1016/j.compbiomed.2022.105671</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>how does the model make predictions? a systematic literature review on the explainability power of machine learning in healthcare</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Allgaier J.; Mulansky L.; Draelos R.L.; Pryss R.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence in Medicine</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Background: Medical use cases for machine learning (ML) are growing exponentially. The first hospitals are already using ML systems as decision support systems in their daily routine. At the same time, most ML systems are still opaque and it is not clear how these systems arrive at their predictions. Methods: In this paper, we provide a brief overview of the taxonomy of explainability methods and review popular methods. In addition, we conduct a systematic literature search on PubMed to investigate which explainable artificial intelligence (XAI) methods are used in 450 specific medical supervised ML use cases, how the use of XAI methods has emerged recently, and how the precision of describing ML pipelines has evolved over the past 20 years. Results: A large fraction of publications with ML use cases do not use XAI methods at all to explain ML predictions. However, when XAI methods are used, open-source and model-agnostic explanation methods are more commonly used, with SHapley Additive exPlanations (SHAP) and Gradient Class Activation Mapping (Grad-CAM) for tabular and image data leading the way. ML pipelines have been described in increasing detail and uniformity in recent years. However, the willingness to share data and code has stagnated at about one-quarter. Conclusions: XAI methods are mainly used when their application requires little effort. The homogenization of reports in ML use cases facilitates the comparability of work and should be advanced in the coming years. Experts who can mediate between the worlds of informatics and medicine will become more and more in demand when using ML systems due to the high complexity of the domain. © 2023</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>10.1016/j.artmed.2023.102616</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>human computer interaction applications in healthcare: an integrative review</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Mishra R.; Satpathy R.; Pati B.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>EAI Endorsed Transactions on Pervasive Health and Technology</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>INTRODUCTION: Human computer interaction (HCI) interprets the design model and the uses of computer technology which focuses on the interface between the user and the computer. HCI is a very important factor in the design of software-oriented decision-making ideas in health-care organizations and also it assists in accurate detection of image, disease including safety of the patients. OBJECTIVES: There are some pitfalls arises over some previous works on cloud based HCI applications. For that reason, to masafety, patient’s safety we wanted to work on explainable artificial intelligence (x-AI) and human intelligence in conjunction with HCI in various fields and algorithms to pro-vide transparency to the user. This may also use some web-based technologies and digital platforms with HCI for development of quality, safety and usability of the patients. METHODS: The purpose of this study about the communication between the HCI design and healthcare system through client and apply that method to the information system of Healthcare department to analyse the functions, effects and outcomes. RESULTS: The integration of explainable artificial intelligence (x-AI) and human intelligence with Human-Computer Interaction (HCI) demonstrated promising potential in enhancing patient safety and optimizing healthcare processes. CONCLUSION: By leveraging web-based technologies and digital platforms, this study established a framework for improving the quality, safety, and usability of healthcare services through effective communication between HCI design and healthcare systems. © 2023 R. Mishra et al., licensed to EAI.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>10.4108/eetpht.9.4186</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>human-guided deep learning with ante-hoc explainability by convolutional network from non-image data for pregnancy prognostication</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sufriyana H.; Wu Y.-W.; Su E.C.-Y.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Neural Networks</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Background and Objective: Deep learning is applied in medicine mostly due to its state-of-the-art performance for diagnostic imaging. Supervisory authorities also require the model to be explainable, but most explain the model after development (post hoc) instead of incorporating explanation into the design (ante hoc). This study aimed to demonstrate a human-guided deep learning with ante-hoc explainability by convolutional network from non-image data to develop, validate, and deploy a prognostic prediction model for PROM and an estimator of time of delivery using a nationwide health insurance database. Methods: To guide modeling, we constructed and verified association diagrams respectively from literatures and electronic health records. Non-image data were transformed into meaningful images utilizing predictor-to-predictor similarities, harnessing the power of convolutional neural network mostly used for diagnostic imaging. The network architecture was also inferred from the similarities. Results: This resulted the best model for prelabor rupture of membranes (n=883, 376) with the area under curves 0.73 (95% CI 0.72 to 0.75) and 0.70 (95% CI 0.69 to 0.71) respectively by internal and external validations, and outperformed previous models found by systematic review. It was explainable by knowledge-based diagrams and model representation. Conclusions: This allows prognostication with actionable insights for preventive medicine. © 2023 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>10.1016/j.neunet.2023.02.020</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>implementation of explainable artificial intelligence case study on the assessment of movements to support neuromotor rehabilitation</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>de Camargo, LF; Dias, DRC; Brega, JRF</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>COMPUTATIONAL SCIENCE AND ITS APPLICATIONS, ICCSA 2023, PT I</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Solutions based on Artificial Intelligence are being used to solve problems in various domains. However, many people feel uncomfortable with this type of solution because they must understand how it works. In the face of this, the so-called eXplainable Artificial Intelligence arises, seeking not only to provide the answers produced by Artificial Intelligence but also to offer aspects of explainability, detailing the decision process and generating confidence. In this context, a literature review on eXplainable Artificial Intelligence has presented a brief comparative study between the most popular libraries for this implementation and a deepening of the theme of explainability evaluation and the comprehension process. A proposal for the implementation and evaluation of eXplainable Artificial Intelligence in the context of movement classification to support neuromotor rehabilitation was built from the results obtained. The first experiments performed showed to be promising. The proposal is expected to be relevant for addressing a growing theme in a context, the health area, that demands explicability and transparency in decisions.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-36805-9_37</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>implementation of explainable artificial intelligence: case study on the assessment of movements to support neuromotor rehabilitation</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>de Camargo L.F.; Dias D.R.C.; Brega J.R.F.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Solutions based on Artificial Intelligence are being used to solve problems in various domains. However, many people feel uncomfortable with this type of solution because they must understand how it works. In the face of this, the so-called eXplainable Artificial Intelligence arises, seeking not only to provide the answers produced by Artificial Intelligence but also to offer aspects of explainability, detailing the decision process and generating confidence. In this context, a literature review on eXplainable Artificial Intelligence has presented a brief comparative study between the most popular libraries for this implementation and a deepening of the theme of explainability evaluation and the comprehension process. A proposal for the implementation and evaluation of eXplainable Artificial Intelligence in the context of movement classification to support neuromotor rehabilitation was built from the results obtained. The first experiments performed showed to be promising. The proposal is expected to be relevant for addressing a growing theme in a context, the health area, that demands explicability and transparency in decisions. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-36805-9_37</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>intelligent and immersive visual analytics of health data</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Qu Z.; Lau C.W.; Catchpoole D.R.; Simoff S.; Nguyen Q.V.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Studies in Computational Intelligence</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Massive amounts of health data have been created together with the advent of computer technologies and next generation sequencing technologies. Analytical techniques can significantly aid in the processing, integration and interpretation of the complex data. Visual analytics field has been rapidly evolving together with the advancement in automated analysis methods such as data mining, machine learning and statistics, visualization, and immersive technologies. Although automated analysis processes greatly support the decision making, conservative domains such as medicine, banking, and insurance need trusts on machine learning models. Explainable artificial intelligence could open the black boxes of the machine learning models to improve the trusts for decision makers. Immersive technologies allow the users to engage naturally with the blended reality in where they can look the information in different angles in addition to traditional screens. This chapter reviews and discusses the intelligent visualization, artificial intelligence and immersive technologies in health domain. We also illustrate the ideas with various case studies in genomic data visual analytics. © Springer-Verlag GmbH Germany, part of Springer Nature 2020.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-662-61114-2_3</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>interpretable cervical cell classification: a comparative analysis</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Gnanavel N.; Inparaj P.; Sritharan N.; Meedeniya D.; Yogarajah P.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ICARC 2024 - 4th International Conference on Advanced Research in Computing: Smart and Innovative Trends in Next Generation Computing Technologies</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Cervical cancer is a significant global health issue, and traditional screening methods like Pap smears are labor-intensive and may miss some cases. Automation is needed, but it faces challenges in terms of interpretability and data availability. To address this, the paper proposes using Explainable Artificial Intelligence (XAI) techniques like GradCAM, GradCAM++, and LRP to improve the transparency and interpretability of a cervical cell classification model, making it a novel contribution to enhancing the trustworthiness of automated cervical cancer detection. Using the Herlev Dataset, we employ data pre-processing, data augmentation techniques and develop a binary classification model, achieving a 91.94% accuracy with VGG16. The qualitative analysis of XAI methods confirmed that the model relied on nucleus and cytoplasm features, key indicators of malignancy. The least mean image entropy of 2.4849 and steep prediction confidence drop with perturbations quantitatively proved Layer-wise Relevance Propagation (LRP) to be the most effective XAI technique for cervical cell classification.  © 2024 IEEE.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>10.1109/ICARC61713.2024.10499737</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>interpretable deep-learning approaches for osteoporosis risk screening and individualized feature analysis using large population-based data: model development and performance evaluation</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Suh B.; Yu H.; Kim H.; Lee S.; Kong S.; Kim J.-W.; Choi J.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Journal of Medical Internet Research</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Background: Osteoporosis is one of the diseases that requires early screening and detection for its management. Common clinical tools and machine-learning (ML) models for screening osteoporosis have been developed, but they show limitations such as low accuracy. Moreover, these methods are confined to limited risk factors and lack individualized explanation. Objective: The aim of this study was to develop an interpretable deep-learning (DL) model for osteoporosis risk screening with clinical features. Clinical interpretation with individual explanations of feature contributions is provided using an explainable artificial intelligence (XAI) technique. Methods: We used two separate data sets: the National Health and Nutrition Examination Survey data sets from the United States (NHANES) and South Korea (KNHANES) with 8274 and 8680 respondents, respectively. The study population was classified according to the T-score of bone mineral density at the femoral neck or total femur. A DL model for osteoporosis diagnosis was trained on the data sets and significant risk factors were investigated with local interpretable model-agnostic explanations (LIME). The performance of the DL model was compared with that of ML models and conventional clinical tools. Additionally, contribution ranking of risk factors and individualized explanation of feature contribution were examined. Results: Our DL model showed area under the curve (AUC) values of 0.851 (95% CI 0.844-0.858) and 0.922 (95% CI 0.916-0.928) for the femoral neck and total femur bone mineral density, respectively, using the NHANES data set. The corresponding AUC values for the KNHANES data set were 0.827 (95% CI 0.821-0.833) and 0.912 (95% CI 0.898-0.927), respectively. Through the LIME method, significant features were induced, and each feature’s integrated contribution and interpretation for individual risk were determined. Conclusions: The developed DL model significantly outperforms conventional ML models and clinical tools. Our XAI model produces high-ranked features along with the integrated contributions of each feature, which facilitates the interpretation of individual risk. In summary, our interpretable model for osteoporosis risk screening outperformed state-of-the-art methods. ©Bogyeong Suh, Heejin Yu, Hyeyeon Kim, Sanghwa Lee, Sunghye Kong, Jin-Woo Kim, Jongeun Choi.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>10.2196/40179</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>interpretable drug resistance prediction for patients on anti-retroviral therapies (art)</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Muhire J.; Badru S.; Nakatumba-Nabende J.; Marvin G.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Communications in Computer and Information Science</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>The challenge of eliminating HIV transmission is a critical and complex under taking, particularly in Africa, where countries like Uganda are grappling with a staggering 1.6 million people living with the disease. The virus’s fast pace of mutation is one of the main challenges in this battle, which often leads to the development of drug resistance and makes it difficult to provide effective treatment through AntiRetroviral Therapies (ART). By leveraging the latest innovations in Smart Technologies and Systems, such as Machine Learning, Artificial Intelligence, and Deep Learning, we can create novel approaches to tackle this issue. We presented a model that predicts which HIV patients are likely to develop drug resistance using viral load laboratory test data and machine learning algorithms. On the remaining 30% of the data, we tested our algorithms after painstakingly training and validating them on the previous 70%. Our findings were remarkable: the Decision Tree algorithm outperformed four other comparative algorithms with an f1 scoring mean of 0.9949, greatly improving our ability to identify drug resistance in HIV patients. Our research highlights the potential of combining data from viral load tests with machine learning techniques to identify patients who are likely to develop treatment resistance. These findings are a significant step forward in our ongoing fight against HIV, and we are confident that they will pave the way for new, innovative solutions to address this global health crisis. © The Author(s), under exclusive license to Springer Nature Switzerland AG 2024.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-50993-3_4</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>interpretable medical imagery diagnosis with self-attentive transformers: a review of explainable ai for health care</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Lai T.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>BioMedInformatics</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Recent advancements in artificial intelligence (AI) have facilitated its widespread adoption in primary medical services, addressing the demand–supply imbalance in healthcare. Vision Transformers (ViT) have emerged as state-of-the-art computer vision models, benefiting from self-attention modules. However, compared to traditional machine learning approaches, deep learning models are complex and are often treated as a “black box” that can cause uncertainty regarding how they operate. Explainable artificial intelligence (XAI) refers to methods that explain and interpret machine learning models’ inner workings and how they come to decisions, which is especially important in the medical domain to guide healthcare decision-making processes. This review summarizes recent ViT advancements and interpretative approaches to understanding the decision-making process of ViT, enabling transparency in medical diagnosis applications. © 2024 by the author.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>10.3390/biomedinformatics4010008</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>iot-based health big-data process technologies: a survey</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Yoo H.; Park R.C.; Chung K.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>KSII Transactions on Internet and Information Systems</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Recently, the healthcare field has undergone rapid changes owing to the accumulation of health big data and the development of machine learning. Data mining research in the field of healthcare has different characteristics from those of other data analyses, such as the structural complexity of the medical data, requirement for medical expertise, and security of personal medical information. Various methods have been implemented to address these issues, including the machine learning model and cloud platform. However, the machine learning model presents the problem of opaque result interpretation, and the cloud platform requires more in-depth research on security and efficiency. To address these issues, this paper presents a recent technology for Internet-of-Things-based (IoT-based) health big data processing. We present a cloud-based IoT health platform and health big data processing technology that reduces the medical data management costs and enhances safety. We also present a data mining technology for health-risk prediction, which is the core of healthcare. Finally, we propose a study using explainable artificial intelligence that enhances the reliability and transparency of the decision-making system, which is called the black box model owing to its lack of transparency. © 2021 Korean Society for Internet Information. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>10.3837/tiis.2021.03.009</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>knowledge graphs and explainable ai in healthcare</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Rajabi E.; Kafaie S.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Information (Switzerland)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Building trust and transparency in healthcare can be achieved using eXplainable Artificial Intelligence (XAI), as it facilitates the decision-making process for healthcare professionals. Knowledge graphs can be used in XAI for explainability by structuring information, extracting features and relations, and performing reasoning. This paper highlights the role of knowledge graphs in XAI models in healthcare, considering a state-of-the-art review. Based on our review, knowledge graphs have been used for explainability to detect healthcare misinformation, adverse drug reactions, drug-drug interactions and to reduce the knowledge gap between healthcare experts and AI-based models. We also discuss how to leverage knowledge graphs in pre-model, in-model, and post-model XAI models in healthcare to make them more explainable. © 2022 by the authors.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>10.3390/info13100459</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>learning the mental health impact of covid-19 in the united states with explainable artificial intelligence: observational study</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Jha I.P.; Awasthi R.; Kumar A.; Kumar V.; Sethi T.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>JMIR Mental Health</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Background: The COVID-19 pandemic has affected the health, economic, and social fabric of many nations worldwide. Identification of individual-level susceptibility factors may help people in identifying and managing their emotional, psychological, and social well-being. Objective: This study is focused on learning a ranked list of factors that could indicate a predisposition to a mental disorder during the COVID-19 pandemic. Methods: In this study, we have used a survey of 17,764 adults in the United States from different age groups, genders, and socioeconomic statuses. Through initial statistical analysis and Bayesian network inference, we have identified key factors affecting mental health during the COVID-19 pandemic. Integrating Bayesian networks with classical machine learning approaches led to effective modeling of the level of mental health prevalence. Results: Overall, females were more stressed than males, and people in the age group 18-29 years were more vulnerable to anxiety than other age groups. Using the Bayesian network model, we found that people with a chronic mental illness were more prone to mental disorders during the COVID-19 pandemic. The new realities of working from home; homeschooling; and lack of communication with family, friends, and neighbors induces mental pressure. Financial assistance from social security helps in reducing mental stress during the COVID-19–generated economic crises. Finally, using supervised machine learning models, we predicted the most mentally vulnerable people with ~80% accuracy. Conclusions: Multiple factors such as social isolation, digital communication, and working and schooling from home were identified as factors of mental illness during the COVID-19 pandemic. Regular in-person communication with friends and family, a healthy social life, and social security were key factors, and taking care of people with a history of mental disease appears to be even more important during this time. © Indra Prakash Jha, Raghav Awasthi, Ajit Kumar, Vibhor Kumar, Tavpritesh Sethi.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>10.2196/25097</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>leveraging explainable artificial intelligence to optimize clinical decision support</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Liu S.; McCoy A.B.; Peterson J.F.; Lasko T.A.; Sittig D.F.; Nelson S.D.; Andrews J.; Patterson L.; Cobb C.M.; Mulherin D.; Morton C.T.; Wright A.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Journal of the American Medical Informatics Association</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Objective: To develop and evaluate a data-driven process to generate suggestions for improving alert criteria using explainable artificial intelligence (XAI) approaches. Methods: We extracted data on alerts generated from January 1, 2019 to December 31, 2020, at Vanderbilt University Medical Center. We developed machine learning models to predict user responses to alerts. We applied XAI techniques to generate global explanations and local explanations. We evaluated the generated suggestions by comparing with alert's historical change logs and stakeholder interviews. Suggestions that either matched (or partially matched) changes already made to the alert or were considered clinically correct were classified as helpful. Results: The final dataset included 2 991 823 firings with 2689 features. Among the 5 machine learning models, the LightGBM model achieved the highest Area under the ROC Curve: 0.919 [0.918, 0.920]. We identified 96 helpful suggestions. A total of 278 807 firings (9.3%) could have been eliminated. Some of the suggestions also revealed workflow and education issues. Conclusion: We developed a data-driven process to generate suggestions for improving alert criteria using XAI techniques. Our approach could identify improvements regarding clinical decision support (CDS) that might be overlooked or delayed in manual reviews. It also unveils a secondary purpose for the XAI: to improve quality by discovering scenarios where CDS alerts are not accepted due to workflow, education, or staffing issues. © 2024 The Author(s). Published by Oxford University Press on behalf of the American Medical Informatics Association.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>10.1093/jamia/ocae019</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>linked open government data to predict and explain house prices: the case of scottish statistics portal</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Karamanou A.; Kalampokis E.; Tarabanis K.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Big Data Research</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Accurately estimating the prices of houses is important for various stakeholders including house owners, real estate agencies, government agencies, and policy-makers. Towards this end, traditional statistics and, only recently, advanced machine learning and artificial intelligence models are used. Open Government Data (OGD) have a huge potential especially when combined with AI technologies. OGD are often published as linked data to facilitate data integration and re-usability. EXplainable Artificial Intelligence (XAI) can be used by stakeholders to understand the decisions of a predictive model. This work creates a model that predicts house prices by applying machine learning on linked OGD. We present a case study that uses XGBoost, a powerful machine learning algorithm, and linked OGD from the official Scottish data portal to predict the probability the mean prices of houses in the various data zones of Scotland to be higher than the average price in Scotland. XAI is also used to globally and locally explain the decisions of the model. The created model has Receiver Operating Characteristic (ROC) AUC score 0.923 and Precision Recall Curve (PRC) AUC score 0.891. According to XAI, the variable that mostly affects the decisions of the model is Comparative Illness Factor, an indicator of health conditions. However, local explainability shows that the decisions made in some data zones may be mostly affected by other variables such as the percent of detached dwellings and employment deprived population. © 2022 Elsevier Inc.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>10.1016/j.bdr.2022.100355</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>machine learning in postgenomic biology and personalized medicine</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ray A.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Wiley Interdisciplinary Reviews: Data Mining and Knowledge Discovery</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>In recent years, machine learning (ML) has been revolutionizing biology, biomedical sciences, and gene-based agricultural technology capabilities. Massive data generated in biological sciences by rapid and deep gene sequencing and protein or other molecular structure determination, on the one hand, require data analysis capabilities using ML that are distinctly different from classical statistical methods; on the other, these large datasets are enabling the adoption of novel data-intensive ML algorithms for the solution of biological problems that until recently had relied on mechanistic model-based approaches that are computationally expensive. This review provides a bird's eye view of the applications of ML in postgenomic biology. Attempt is also made to indicate as far as possible the areas of research that are poised to make further impacts in these areas, including the importance of explainable artificial intelligence in human health. Further contributions of ML are expected to transform medicine, public health, agricultural technology, as well as to provide invaluable gene-based guidance for the management of complex environments in this age of global warming. This article is categorized under: Technologies &gt; Machine Learning Technologies &gt; Artificial Intelligence Technologies &gt; Prediction. © 2022 Wiley Periodicals LLC.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>10.1002/widm.1451</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>machine learning-based clinical decision support systems for pregnancy care: a systematic review</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Du Y.; McNestry C.; Wei L.; Antoniadi A.M.; McAuliffe F.M.; Mooney C.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>International Journal of Medical Informatics</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Background: Clinical decision support systems (CDSSs) can provide various functions and advantages to healthcare delivery. Quality healthcare during pregnancy and childbirth is of vital importance, and machine learning-based CDSSs have shown positive impact on pregnancy care. Objective: This paper aims to investigate what has been done in CDSSs in the context of pregnancy care using machine learning, and what aspects require attention from future researchers. Methods: We conducted a systematic review of existing literature following a structured process of literature search, paper selection and filtering, and data extraction and synthesis. Results: 17 research papers were identified on the topic of CDSS development for different aspects of pregnancy care using various machine learning algorithms. We discovered an overall lack of explainability in the proposed models. We also observed a lack of experimentation, external validation and discussion around culture, ethnicity and race from the source data, with most studies using data from a single centre or country, and an overall lack of awareness of applicability and generalisability of the CDSSs regarding different populations. Finally, we found a gap between machine learning practices and CDSS implementation, and an overall lack of user testing. Conclusion: Machine learning-based CDSSs are still under-explored in the context of pregnancy care. Despite the open problems that remain, the few studies that tested a CDSS for pregnancy care reported positive effects, reinforcing the potential of such systems to improve clinical practice. We encourage future researchers to take into consideration the aspects we identified in order for their work to translate into clinical use. © 2023 The Author(s)</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>10.1016/j.ijmedinf.2023.105040</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>method to produce more reasonable candidate solutions with explanations in intelligent decision support systems</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Da Silva Oliveira F.R.; De Lima Neto F.B.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>The integration of Artificial Intelligence techniques into Decision Support Systems yields effective solutions to decision problems, especially when complex scenarios are at hand. However, the use of intelligent black-box models can hinder the decision support system's potential to be fully adopted because opaque processes raise suspicions and doubts among careful decision makers. Moreover, appropriate and comprehensible explanations may foster trustworthiness and allow for reasonable adjustments or even corrections. This work proposed an approach that incorporates three reasonability aspects into Decision Systems: feasibility, rationality, and plausibility. Thus, by providing decision makers with reasonable candidate solutions for a complex problem, they are expected to perform their tasks more effectively (i.e. decide with more efficiency as well as efficacy). The new approach is accompanied by two proofs of concept in the health and public security areas. Comparative results using random and rational approaches, including the simulation of distinct user profiles, are presented. The proposed approach achieved superior metrics with regard to feasibility and plausibility, suggesting that this proposition can be applied to real-world applications. © 2013 IEEE.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2023.3250262</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>modern views of machine learning for precision psychiatry</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Chen Z.S.; Kulkarni P.P.; Galatzer-Levy I.R.; Bigio B.; Nasca C.; Zhang Y.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Patterns</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>In light of the National Institute of Mental Health (NIMH)’s Research Domain Criteria (RDoC), the advent of functional neuroimaging, novel technologies and methods provide new opportunities to develop precise and personalized prognosis and diagnosis of mental disorders. Machine learning (ML) and artificial intelligence (AI) technologies are playing an increasingly critical role in the new era of precision psychiatry. Combining ML/AI with neuromodulation technologies can potentially provide explainable solutions in clinical practice and effective therapeutic treatment. Advanced wearable and mobile technologies also call for the new role of ML/AI for digital phenotyping in mobile mental health. In this review, we provide a comprehensive review of ML methodologies and applications by combining neuroimaging, neuromodulation, and advanced mobile technologies in psychiatry practice. We further review the role of ML in molecular phenotyping and cross-species biomarker identification in precision psychiatry. We also discuss explainable AI (XAI) and neuromodulation in a closed human-in-the-loop manner and highlight the ML potential in multi-media information extraction and multi-modal data fusion. Finally, we discuss conceptual and practical challenges in precision psychiatry and highlight ML opportunities in future research. © 2022 The Author(s)</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>10.1016/j.patter.2022.100602</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>navigating the ethical crossroads: bridging the gap between predictive power and explanation in the use of artificial intelligence in medicine</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Riva G.; Sajno E.; DE GASPARI S.; Pupillo C.; Wiederhold B.K.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Annual Review of CyberTherapy and Telemedicine</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence (AI) has emerged as a transformative force in medicine, provoking both awe and apprehension in clinicians and patients. In fact, the challenges posed by medical AI extend beyond mere technological hiccups; they delve into the very core of ethics and human decision-making. This paper delves into the intricate dichotomy between the clinical predictive prowess of AI and the human ability to explain decisions, highlighting the ethical challenges arising from this disparity. While humans can elucidate their choices, AI often operates in opaque realms, generating predictions without transparent reasoning. The paper explores the cognitive underpinnings of prediction and explanation, emphasizing the essential interplay between these processes in human intelligence. It critically analyzes the limitations of current medical AI systems, emphasizing their vulnerability to errors and lack of transparency, especially in a critical domain like healthcare. In this paper, we contend that explainability serves as a vital tool to ensure that patients remain at the core of healthcare. It empowers patients and clinicians to make informed, autonomous decisions regarding their health. Explainable Artificial Intelligence (XAI) tackles these challenges. However, achieving it is not easy, and it is strongly dependent from different technical, social and psychological variables. Achieving this objective highlights the urgent requirement for a multidisciplinary approach in XAI that integrates technological knowledge with psychological, cognitive and social perspectives. This alignment will foster innovation, empathy, and responsible implementation, shaping a healthcare landscape that prioritizes both technological advancement and ethical considerations. © 2023, Interactive Media Institute. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>neuronet: a deep learning framework for stroke analysis</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Prasad A.; Asha V.; Tressa N.; Sharma D.; Deepthi V.; Divyashree S.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2nd International Conference on Intelligent Data Communication Technologies and Internet of Things, IDCIoT 2024</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>The revolutionary potential of a deep learning framework for stroke analysis and prediction in the healthcare industry is examined in this paper. The suggested framework uses large datasets, such as patient records, medical images, and pertinent health information, to create histicated neural networks in order to address the critical need for early detection and intervention in stroke cases. Important areas like stroke type classification, natural language processing, image analysis, treatment optimization, outcome prediction, telemedicine, and explainable artificial intelligence are highlighted in the thorough review of related work. The steps involved in data collection, preprocessing, model selection, and result interpretation are all carefully laid out in the methodology. A thorough evaluation of machine learning models, such as Random Forest, SVM, XGBoost, and Logistic Regression, is carried out; Random Forest continuously performs well. The results highlight how difficult it is to predict strokes and how crucial it is to choose models carefully. With the ultimate goal of improving stroke diagnosis, treatment, and prevention for improved patient care through ongoing research and technological advancements, ethical considerations and adherence to healthcare regulations in AI applications are emphasized.  © 2024 IEEE.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>10.1109/IDCIoT59759.2024.10467659</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>on the road to explainable ai in drug-drug interactions prediction: a systematic review</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Vo T.H.; Nguyen N.T.K.; Kha Q.H.; Le N.Q.K.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Computational and Structural Biotechnology Journal</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Over the past decade, polypharmacy instances have been common in multi-diseases treatment. However, unwanted drug-drug interactions (DDIs) that might cause unexpected adverse drug events (ADEs) in multiple regimens therapy remain a significant issue. Since artificial intelligence (AI) is ubiquitous today, many AI prediction models have been developed to predict DDIs to support clinicians in pharmacotherapy-related decisions. However, even though DDI prediction models have great potential for assisting physicians in polypharmacy decisions, there are still concerns regarding the reliability of AI models due to their black-box nature. Building AI models with explainable mechanisms can augment their transparency to address the above issue. Explainable AI (XAI) promotes safety and clarity by showing how decisions are made in AI models, especially in critical tasks like DDI predictions. In this review, a comprehensive overview of AI-based DDI prediction, including the publicly available source for AI-DDIs studies, the methods used in data manipulation and feature preprocessing, the XAI mechanisms to promote trust of AI, especially for critical tasks as DDIs prediction, the modeling methods, is provided. Limitations and the future directions of XAI in DDIs are also discussed. © 2022 The Author(s)</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>10.1016/j.csbj.2022.04.021</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>overview of explainable artificial intelligence for prognostic and health management of industrial assets based on preferred reporting items for systematic reviews and meta-analyses</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Nor A.K.M.; Pedapati S.R.; Muhammad M.; Leiva V.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Sensors</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Surveys on explainable artificial intelligence (XAI) are related to biology, clinical trials, fintech management, medicine, neurorobotics, and psychology, among others. Prognostics and health management (PHM) is the discipline that links the studies of failure mechanisms to system lifecycle management. There is a need, which is still absent, to produce an analytical compilation of PHM-XAI works. In this paper, we use preferred reporting items for systematic reviews and meta-analyses (PRISMA) to present a state of the art on XAI applied to PHM of industrial assets. This work provides an overview of the trend of XAI in PHM and answers the question of accuracy versus explainability, considering the extent of human involvement, explanation assessment, and uncertainty quantification in this topic. Research articles associated with the subject, since 2015 to 2021, were selected from five databases following the PRISMA methodology, several of them related to sensors. The data were extracted from selected articles and examined obtaining diverse findings that were synthesized as follows. First, while the discipline is still young, the analysis indicates a growing acceptance of XAI in PHM. Second, XAI offers dual advantages, where it is assimilated as a tool to execute PHM tasks and explain diagnostic and anomaly detection activities, implying a real need for XAI in PHM. Third, the review shows that PHM-XAI papers provide interesting results, suggesting that the PHM performance is unaffected by the XAI. Fourth, human role, evaluation metrics, and uncertainty management are areas requiring further attention by the PHM community. Adequate assessment metrics to cater to PHM needs are requested. Finally, most case studies featured in the considered articles are based on real industrial data, and some of them are related to sensors, showing that the available PHM-XAI blends solve real-world challenges, increasing the confidence in the artificial intelligence models’ adoption in the industry. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>10.3390/s21238020</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>plenary: explaining black-box models in natural language through fuzzy linguistic summaries</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Kaczmarek-Majer K.; Casalino G.; Castellano G.; Dominiak M.; Hryniewicz O.; Kamińska O.; Vessio G.; Díaz-Rodríguez N.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Information Sciences</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>We introduce an approach called PLENARY (exPlaining bLack-box modEls in Natural lAnguage thRough fuzzY linguistic summaries), which is an explainable classifier based on a data-driven predictive model. Neural learning is exploited to derive a predictive model based on two levels of labels associated with the data. Then, model explanations are derived through the popular SHapley Additive exPlanations (SHAP) tool and conveyed in a linguistic form via fuzzy linguistic summaries. The linguistic summarization allows translating the explanations of the model outputs provided by SHAP into statements expressed in natural language. PLENARY accounts for the imprecision related to model outputs by summarizing them into simple linguistic statements and for the imprecision related to the data labeling process by including additional domain knowledge in the form of middle-layer labels. PLENARY is validated on preprocessed speech signals collected from smartphones from patients with bipolar disorder and on publicly available mental health survey data. The experiments confirm that fuzzy linguistic summarization is an effective technique to support meta-analyses of the outputs of AI models. Also, PLENARY improves explainability by aggregating low-level attributes into high-level information granules, and by incorporating vague domain knowledge into a multi-task sequential and compositional multilayer perceptron. SHAP explanations translated into fuzzy linguistic summaries significantly improve understanding of the predictive modelling process and its outputs. © 2022 The Authors</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>10.1016/j.ins.2022.10.010</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>polychlorinated biphenyls in mussels, small pelagic fish, tuna, turtles, and dolphins from the croatian adriatic sea waters: an overview of the last two decades of monitoring</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Romanic, SH; Mendas, G; Fingler, S; Drevenkar, V; Mustac, B; Jovanovic, G</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>ARHIV ZA HIGIJENU RADA I TOKSIKOLOGIJU-ARCHIVES OF INDUSTRIAL HYGIENE AND TOXICOLOGY</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>This review summarises our two decades of polychlorinated biphenyl (PCB) monitoring in different marine organisms along the eastern Adriatic Sea. The aim was to gain an insight into the trends of PCB distribution in order to evaluate the effectiveness of past and current legislation and suggest further action. Here we mainly focus on PCB levels in wild and farmed Mediterranean mussels, wild and farmed bluefin tuna, loggerhead sea turtles, common bottlenose dolphins, and small pelagic fish. The use of artificial intelligence and advanced statistics enabled an insight into the influence of various variables on the uptake of PCBs in the investigated organisms as well as into their mutual dependence. Our findings suggest that PCBs in small pelagic fish and mussels reflect global pollution and that high levels in dolphins and wild tuna tissues raise particular concern, as they confirm their biomagnification up the food chain. Therefore, the ongoing PCB monitoring should focus on predatory species in particular to help us better understand PCB contamination in marine ecosystems in our efforts to protect the environment and human health.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>10.2478/aiht-2024-75-3814</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>polychlorinated biphenyls in mussels, small pelagic fish, tuna, turtles, and dolphins from the croatian adriatic sea waters: an overview of the last two decades of monitoring; [poliklorirani bifenili u dagnjama, malim plavim ribama, tunama, kornjačama i dupinima iz voda hrvatskoga jadrana - pregled monitoringa u protekla dva desetljeća]</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Romanić S.H.; Mendaš G.; Fingler S.; Drevenkar V.; Mustać B.; Jovanović G.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Arhiv za Higijenu Rada i Toksikologiju</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>This review summarises our two decades of polychlorinated biphenyl (PCB) monitoring in different marine organisms along the eastern Adriatic Sea. The aim was to gain an insight into the trends of PCB distribution in order to evaluate the effectiveness of past and current legislation and suggest further action. Here we mainly focus on PCB levels in wild and farmed Mediterranean mussels, wild and farmed bluefin tuna, loggerhead sea turtles, common bottlenose dolphins, and small pelagic fish. The use of artificial intelligence and advanced statistics enabled an insight into the influence of various variables on the uptake of PCBs in the investigated organisms as well as into their mutual dependence. Our findings suggest that PCBs in small pelagic fish and mussels reflect global pollution and that high levels in dolphins and wild tuna tissues raise particular concern, as they confirm their biomagnification up the food chain. Therefore, the ongoing PCB monitoring should focus on predatory species in particular to help us better understand PCB contamination in marine ecosystems in our efforts to protect the environment and human health. © 2024 Sciendo. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>10.2478/aiht-2024-75-3814</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>prediction of disease comorbidity using explainable artificial intelligence and machine learning techniques: a systematic review</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Alsaleh M.M.; Allery F.; Choi J.W.; Hama T.; McQuillin A.; Wu H.; Thygesen J.H.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>International Journal of Medical Informatics</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Objective: Disease comorbidity is a major challenge in healthcare affecting the patient's quality of life and costs. AI-based prediction of comorbidities can overcome this issue by improving precision medicine and providing holistic care. The objective of this systematic literature review was to identify and summarise existing machine learning (ML) methods for comorbidity prediction and evaluate the interpretability and explainability of the models. Materials and methods: The Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA) framework was used to identify articles in three databases: Ovid Medline, Web of Science and PubMed. The literature search covered a broad range of terms for the prediction of disease comorbidity and ML, including traditional predictive modelling. Results: Of 829 unique articles, 58 full-text papers were assessed for eligibility. A final set of 22 articles with 61 ML models was included in this review. Of the identified ML models, 33 models achieved relatively high accuracy (80–95%) and AUC (0.80–0.89). Overall, 72% of studies had high or unclear concerns regarding the risk of bias. Discussion: This systematic review is the first to examine the use of ML and explainable artificial intelligence (XAI) methods for comorbidity prediction. The chosen studies focused on a limited scope of comorbidities ranging from 1 to 34 (mean = 6), and no novel comorbidities were found due to limited phenotypic and genetic data. The lack of standard evaluation for XAI hinders fair comparisons. Conclusion: A broad range of ML methods has been used to predict the comorbidities of various disorders. With further development of explainable ML capacity in the field of comorbidity prediction, there is a significant possibility of identifying unmet health needs by highlighting comorbidities in patient groups that were not previously recognised to be at risk for particular comorbidities. © 2023 The Author(s)</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>10.1016/j.ijmedinf.2023.105088</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>prediction of outcomes after heart transplantation in pediatric patients using national registry data: evaluation of machine learning approaches</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Killian M.O.; Tian S.; Xing A.; Hughes D.; Gupta D.; Wang X.; He Z.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>JMIR Cardio</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Background: The prediction of posttransplant health outcomes for pediatric heart transplantation is critical for risk stratification and high-quality posttransplant care. Objective: The purpose of this study was to examine the use of machine learning (ML) models to predict rejection and mortality for pediatric heart transplant recipients. Methods: Various ML models were used to predict rejection and mortality at 1, 3, and 5 years after transplantation in pediatric heart transplant recipients using United Network for Organ Sharing data from 1987 to 2019. The variables used for predicting posttransplant outcomes included donor and recipient as well as medical and social factors. We evaluated 7 ML models-extreme gradient boosting (XGBoost), logistic regression, support vector machine, random forest (RF), stochastic gradient descent, multilayer perceptron, and adaptive boosting (AdaBoost)-as well as a deep learning model with 2 hidden layers with 100 neurons and a rectified linear unit (ReLU) activation function followed by batch normalization for each and a classification head with a softmax activation function. We used 10-fold cross-validation to evaluate model performance. Shapley additive explanations (SHAP) values were calculated to estimate the importance of each variable for prediction. Results: RF and AdaBoost models were the best-performing algorithms for different prediction windows across outcomes. RF outperformed other ML algorithms in predicting 5 of the 6 outcomes (area under the receiver operating characteristic curve [AUROC] 0.664 and 0.706 for 1-year and 3-year rejection, respectively, and AUROC 0.697, 0.758, and 0.763 for 1-year, 3-year, and 5-year mortality, respectively). AdaBoost achieved the best performance for prediction of 5-year rejection (AUROC 0.705). Conclusions: This study demonstrates the comparative utility of ML approaches for modeling posttransplant health outcomes using registry data. ML approaches can identify unique risk factors and their complex relationship with outcomes, thereby identifying patients considered to be at risk and informing the transplant community about the potential of these innovative approaches to improve pediatric care after heart transplantation. Future studies are required to translate the information derived from prediction models to optimize counseling, clinical care, and decision-making within pediatric organ transplant centers. © Michael O Killian, Shubo Tian, Aiwen Xing, Dana Hughes, Dipankar Gupta, Xiaoyu Wang, Zhe He. Originally published in JMIR Cardio (https://cardio.jmir.org), 20.06.2023.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>10.2196/45352</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>quantum inspired differential evolution with explainable artificial intelligence-based covid-19 detection</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Basahel A.M.; Yamin M.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Computer Systems Science and Engineering</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Recent advancements in the Internet of Things (Io), 5G networks, and cloud computing (CC) have led to the development of Human-centric IoT (HIoT) applications that transform human physical monitoring based on machine monitoring. The HIoT systems find use in several applications such as smart cities, healthcare, transportation, etc. Besides, the HIoT system and explainable artificial intelligence (XAI) tools can be deployed in the healthcare sector for effective decision-making. The COVID-19 pandemic has become a global health issue that necessitates automated and effective diagnostic tools to detect the disease at the initial stage. This article presents a new quantum-inspired differential evolution with explainable artificial intelligence based COVID-19 Detection and Classification (QIDEXAI-CDC) model for HIoT systems. The QIDEXAI-CDC model aims to identify the occurrence of COVID-19 using the XAI tools on HIoT systems. The QIDEXAI-CDC model primarily uses bilateral filtering (BF) as a preprocessing tool to eradicate the noise. In addition, RetinaNet is applied for the generation of useful feature vectors from radiological images. For COVID-19 detection and classification, quantum-inspired differential evolution (QIDE) with kernel extreme learning machine (KELM) model is utilized. The utilization of the QIDE algorithm helps to appropriately choose the weight and bias values of the KELM model. In order to report the enhanced COVID-19 detection outcomes of the QIDEXAI-CDC model, a wide range of simulations was carried out. Extensive comparative studies reported the supremacy of the QIDEXAI-CDC model over the recent approaches. © 2023 Authors. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>10.32604/csse.2023.034449</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>responsible and regulatory conform machine learning for medicine: a survey of challenges and solutions</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Petersen, E; Potdevin, Y; Mohammadi, E; Zidowitz, S; Breyer, S; Nowotka, D; Henn, S; Pechmann, L; Leucker, M; Rostalski, P; Herzog, C</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>IEEE ACCESS</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Machine learning is expected to fuel significant improvements in medical care. To ensure that fundamental principles such as beneficence, respect for human autonomy, prevention of harm, justice, privacy, and transparency are respected, medical machine learning systems must be developed responsibly. Many high-level declarations of ethical principles have been put forth for this purpose, but there is a severe lack of technical guidelines explicating the practical consequences for medical machine learning. Similarly, there is currently considerable uncertainty regarding the exact regulatory requirements placed upon medical machine learning systems. This survey provides an overview of the technical and procedural challenges involved in creating medical machine learning systems responsibly and in conformity with existing regulations, as well as possible solutions to address these challenges. First, a brief review of existing regulations affecting medical machine learning is provided, showing that properties such as safety, robustness, reliability, privacy, security, transparency, explainability, and nondiscrimination are all demanded already by existing law and regulations-albeit, in many cases, to an uncertain degree. Next, the key technical obstacles to achieving these desirable properties are discussed, as well as important techniques to overcome these obstacles in the medical context. We notice that distribution shift, spurious correlations, model underspecification, uncertainty quantification, and data scarcity represent severe challenges in the medical context. Promising solution approaches include the use of large and representative datasets and federated learning as a means to that end, the careful exploitation of domain knowledge, the use of inherently transparent models, comprehensive out-of-distribution model testing and verification, as well as algorithmic impact assessments.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2022.3178382</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>secure and explainable artificial intelligence (xai) in cloud ecosystems: challenges and opportunities</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Khalasi D.; Bathwar D.; Bhatia J.; Kumhar M.; Thumar V.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Networks and Systems</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>The widespread adoption of artificial intelligence (AI) in cloud ecosystems has revolutionized various domains, offering significant advantages such as improved efficiency, scalability, and cost-effectiveness. However, the use of AI also poses significant security risks, and the need for more transparency in AI models makes it difficult to understand how decisions are made. This paper reviews recent research efforts toward developing secure and explainable AI (XAI) for cloud ecosystems, highlights the critical need for secure XAI in cloud ecosystems, and explores the challenges and potential solutions. The paper also discusses a case study involving the security of cloud-based health care with intrusion detection systems (IDS). Finally, the paper concludes with open research directions in this domain and their potential impact on cloud ecosystems. © The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd 2023.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>10.1007/978-981-99-4932-8_51</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>survey of explainable ai techniques in healthcare</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Chaddad A.; Peng J.; Xu J.; Bouridane A.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Sensors</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Artificial intelligence (AI) with deep learning models has been widely applied in numerous domains, including medical imaging and healthcare tasks. In the medical field, any judgment or decision is fraught with risk. A doctor will carefully judge whether a patient is sick before forming a reasonable explanation based on the patient’s symptoms and/or an examination. Therefore, to be a viable and accepted tool, AI needs to mimic human judgment and interpretation skills. Specifically, explainable AI (XAI) aims to explain the information behind the black-box model of deep learning that reveals how the decisions are made. This paper provides a survey of the most recent XAI techniques used in healthcare and related medical imaging applications. We summarize and categorize the XAI types, and highlight the algorithms used to increase interpretability in medical imaging topics. In addition, we focus on the challenging XAI problems in medical applications and provide guidelines to develop better interpretations of deep learning models using XAI concepts in medical image and text analysis. Furthermore, this survey provides future directions to guide developers and researchers for future prospective investigations on clinical topics, particularly on applications with medical imaging. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>10.3390/s23020634</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>survey of explainable ai techniques: a case study of healthcare</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Patil T.; Arora S.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Networks and Systems</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>With its unparalleled predictive capabilities and decision-making power, artificial intelligence (AI) has transformed countless disciplines. Nevertheless, as AI technology advances in complexity and ubiquity, so does the requirement for transparency and interpretability increase commensurately. The opaqueness of AI models makes them difficult to comprehend, which leads to mounting concerns regarding their application. To address this issue effectively, Explainable Artificial Intelligence (XAI) has emerged as an attempt to demystify how machine learning model decisions are made possible by offering comprehensible explanations for opacities caused by variations in input features or noise in data collection processes using methods such as LIME or SHAP especially vital in domains such as health care where ethical considerations outweigh those faced in other areas. This study provides an overview of XAI techniques, a case study that talks about the importance of using techniques such as LIME and SHAP in a healthcare organization to predict whether or not the patient is likely to get a heart disease or not, why and how the outcomes have been obtained. In the concluding section, the paper elaborates on the challenges facing XAI and outlines prospective future directions for research in this domain. © The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd 2023.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>10.1007/978-981-99-5652-4_30</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>survey of explainable artificial intelligence techniques for biomedical imaging with deep neural networks</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Nazir S.; Dickson D.M.; Akram M.U.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Computers in Biology and Medicine</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence (AI) techniques of deep learning have revolutionized the disease diagnosis with their outstanding image classification performance. In spite of the outstanding results, the widespread adoption of these techniques in clinical practice is still taking place at a moderate pace. One of the major hindrance is that a trained Deep Neural Networks (DNN) model provides a prediction, but questions about why and how that prediction was made remain unanswered. This linkage is of utmost importance for the regulated healthcare domain to increase the trust in the automated diagnosis system by the practitioners, patients and other stakeholders. The application of deep learning for medical imaging has to be interpreted with caution due to the health and safety concerns similar to blame attribution in the case of an accident involving autonomous cars. The consequences of both a false positive and false negative cases are far reaching for patients' welfare and cannot be ignored. This is exacerbated by the fact that the state-of-the-art deep learning algorithms comprise of complex interconnected structures, millions of parameters, and a ‘black box’ nature, offering little understanding of their inner working unlike the traditional machine learning algorithms. Explainable AI (XAI) techniques help to understand model predictions which help develop trust in the system, accelerate the disease diagnosis, and meet adherence to regulatory requirements. This survey provides a comprehensive review of the promising field of XAI for biomedical imaging diagnostics. We also provide a categorization of the XAI techniques, discuss the open challenges, and provide future directions for XAI which would be of interest to clinicians, regulators and model developers. © 2023 The Authors</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>10.1016/j.compbiomed.2023.106668</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>textual features of peer review predict top-cited papers: an interpretable machine learning perspective</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sun Z.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Journal of Informetrics</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Peer review is crucial in improving the quality and reliability of scientific research. However, the mechanisms through which peer review practices ensure papers become top-cited papers (TCPs) after publication are not well understood. In this study, by collecting a data set containing 13, 066 papers published between 2016 and 2020 from Nature communications with open peer review reports, we aim to examine how textual features embedded within the peer review reports of papers that reflect the reviewers’ emotions may predict the papers to be TCPs. We compiled a list of 15 textual features and classified them into three categories: peer review features, linguistic features, and sentiment features. We then chose the XGBoost machine learning model with the best performance in predicting TCPs, and utilized the explainable artificial intelligence techniques SHAP to interpret the role of feature importance on the prediction results. The distribution of feature importance ranking results demonstrates that sentiment features play a crucial role in determining papers’ potential to be highly cited. This conclusion still holds, even when the ranking of the feature importance changes in the subgroup analysis of dividing the samples into four disciplines (biological sciences, health sciences, physical sciences, and earth and environmental sciences), as well as two groups based on whether reviewers’ identities were revealed. This research emphasizes the textual features retrieved from peer review reports that play role in improving manuscript quality can predict the post-publication research impact. © 2024</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>10.1016/j.joi.2024.101501</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>the enlightening role of explainable artificial intelligence in medical &amp; healthcare domains: a systematic literature review</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Ali S.; Akhlaq F.; Imran A.S.; Kastrati Z.; Daudpota S.M.; Moosa M.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Computers in Biology and Medicine</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>In domains such as medical and healthcare, the interpretability and explainability of machine learning and artificial intelligence systems are crucial for building trust in their results. Errors caused by these systems, such as incorrect diagnoses or treatments, can have severe and even life-threatening consequences for patients. To address this issue, Explainable Artificial Intelligence (XAI) has emerged as a popular area of research, focused on understanding the black-box nature of complex and hard-to-interpret machine learning models. While humans can increase the accuracy of these models through technical expertise, understanding how these models actually function during training can be difficult or even impossible. XAI algorithms such as Local Interpretable Model-Agnostic Explanations (LIME) and SHapley Additive exPlanations (SHAP) can provide explanations for these models, improving trust in their predictions by providing feature importance and increasing confidence in the systems. Many articles have been published that propose solutions to medical problems by using machine learning models alongside XAI algorithms to provide interpretability and explainability. In our study, we identified 454 articles published from 2018–2022 and analyzed 93 of them to explore the use of these techniques in the medical domain. © 2023 The Author(s)</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>10.1016/j.compbiomed.2023.107555</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>the integration of clinical data in the assessment of multiple sclerosis – a review</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ostellino S.; Benso A.; Politano G.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Computer Methods and Programs in Biomedicine</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Background and Objectives: Multiple Sclerosis (MS) is a neurological disease associated with various and heterogeneous clinical characteristics. Given its complex nature and its unpredictable evolution over time, there isn't an established and exhaustive clinical protocol (or tool) for its diagnosis nor for monitoring its progression. Instead, different clinical exams and physical/psychological evaluations need to be taken into account. The Expanded Disability Status Scale (EDSS) is the most used clinical scale, but it suffers from several limitations. Developing computational solutions for the identification of bio-markers of disease progression that overcome the downsides of currently used scales is crucial and is gaining interest in current literature and research. Methods: This Review focuses on the importance of approaching MS diagnosis and monitoring by investigating correlations between cognitive impairment and clinical data that refer to different MS domains. We review papers that integrate heterogeneous data and analyse them with statistical methods to understand their applicability into more advanced computational tools. Particular attention is paid to the impact that computational approaches can have on personalized-medicine. Results: Personalized medicine for neuro-degenerative diseases is an unmet clinical need which can be addressed using computational approaches able to efficiently integrate heterogeneous clinical data extracted from both private and publicly available electronic health databases. Conclusions: Reliable and explainable Artificial Intelligence are computational approaches required to understand the complex and demonstrated interactions between MS manifestations as well as to provide reliable predictions on the disease evolution, representing a promising research field. © 2022</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>10.1016/j.cmpb.2022.106900</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>the integration of clinical data in the assessment of multiple sclerosis-a review</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ostellino, S; Benso, A; Politano, G</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>COMPUTER METHODS AND PROGRAMS IN BIOMEDICINE</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Background and Objectives: Multiple Sclerosis (MS) is a neurological disease associated with various and heterogeneous clinical characteristics. Given its complex nature and its unpredictable evolution over time, there isn't an established and exhaustive clinical protocol (or tool) for its diagnosis nor for monitoring its progression. Instead, different clinical exams and physical/psychological evaluations need to be taken into account. The Expanded Disability Status Scale (EDSS) is the most used clinical scale, but it suffers from several limitations. Developing computational solutions for the identification of bio-markers of disease progression that overcome the downsides of currently used scales is crucial and is gaining interest in current literature and research. Methods: This Review focuses on the importance of approaching MS diagnosis and monitoring by investigating correlations between cognitive impairment and clinical data that refer to different MS domains. We review papers that integrate heterogeneous data and analyse them with statistical methods to understand their applicability into more advanced computational tools. Particular attention is paid to the impact that computational approaches can have on personalized-medicine. Results: Personalized medicine for neuro-degenerative diseases is an unmet clinical need which can be addressed using computational approaches able to efficiently integrate heterogeneous clinical data extracted from both private and publicly available electronic health databases. Conclusions: Reliable and explainable Artificial Intelligence are computational approaches required to understand the complex and demonstrated interactions between MS manifestations as well as to provide reliable predictions on the disease evolution, representing a promising research field.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>10.1016/j.cmpb.2022.106900</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>the potential of explainable artificial intelligence in precision livestock farming</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Hoxhallari K.; Purcell W.; Neubauer T.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Precision Livestock Farming 2022 - Papers Presented at the 10th European Conference on Precision Livestock Farming, ECPLF 2022</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>In the discussion on the increasing demand for food, which is to be met by efficient and sustainable increases in productivity, animal welfare is becoming increasingly important. Animal health issues must be identified to prevent epidemics that significantly impact the economic performance of farms or even cause societal harm. The use of cutting-edge technologies (IoT, sensors, Big Data processing, etc.) is increasingly enabling early intervention in livestock farming to curb productivity losses through real-time monitoring, alerts, and decision support. The ubiquity of these technological solutions has enabled stakeholders to create more robust agricultural supply chains, that deliver sustainable nutrition for a growing population. However, the increasing use of Artificial Intelligence (AI), which is responsible for many of the current breakthroughs in Precision Livestock Farming (PLF) and agriculture in general, has meant that modern decision-support solutions have increasingly transitioned toward black box systems. It has become apparent that a gap exists between efforts to develop more advanced machine learning models, and the growing demands for ethical assessment and transparency in agriculture decision-making. Explainable Artificial Intelligence (XAI) is one such solution that could prove effective in overcoming the current limitations of black-box models, by allowing the decision-making process of such models to be explored. Through a literature review, we evaluate the potential of XAI in various agricultural use cases and demonstrate the potential benefits of its application to precision livestock management. © ECPLF 2022. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>the price of explainability in machine learning models for 100-day readmission prediction in heart failure: retrospective, comparative, machine learning study</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Soliman A.; Agvall B.; Etminani K.; Hamed O.; Lingman M.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Journal of Medical Internet Research</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Background: Sensitive and interpretable machine learning (ML) models can provide valuable assistance to clinicians in managing patients with heart failure (HF) at discharge by identifying individual factors associated with a high risk of readmission. In this cohort study, we delve into the factors driving the potential utility of classification models as decision support tools for predicting readmissions in patients with HF. Objective: The primary objective of this study is to assess the trade-off between using deep learning (DL) and traditional ML models to identify the risk of 100-day readmissions in patients with HF. Additionally, the study aims to provide explanations for the model predictions by highlighting important features both on a global scale across the patient cohort and on a local level for individual patients. Methods: The retrospective data for this study were obtained from the Regional Health Care Information Platform in Region Halland, Sweden. The study cohort consisted of patients diagnosed with HF who were over 40 years old and had been hospitalized at least once between 2017 and 2019. Data analysis encompassed the period from January 1, 2017, to December 31, 2019. Two ML models were developed and validated to predict 100-day readmissions, with a focus on the explainability of the model’s decisions. These models were built based on decision trees and recurrent neural architecture. Model explainability was obtained using an ML explainer. The predictive performance of these models was compared against 2 risk assessment tools using multiple performance metrics. Results: The retrospective data set included a total of 15,612 admissions, and within these admissions, readmission occurred in 5597 cases, representing a readmission rate of 35.85%. It is noteworthy that a traditional and explainable model, informed by clinical knowledge, exhibited performance comparable to the DL model and surpassed conventional scoring methods in predicting readmission among patients with HF. The evaluation of predictive model performance was based on commonly used metrics, with an area under the precision-recall curve of 66% for the deep model and 68% for the traditional model on the holdout data set. Importantly, the explanations provided by the traditional model offer actionable insights that have the potential to enhance care planning. Conclusions: This study found that a widely used deep prediction model did not outperform an explainable ML model when predicting readmissions among patients with HF. The results suggest that model transparency does not necessarily compromise performance, which could facilitate the clinical adoption of such models. © 2023 Journal of Medical Internet Research. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>10.2196/46934</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>the promise of explainable ai in digital health for precision medicine: a systematic review</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Allen B.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Journal of Personalized Medicine</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>This review synthesizes the literature on explaining machine-learning models for digital health data in precision medicine. As healthcare increasingly tailors treatments to individual characteristics, the integration of artificial intelligence with digital health data becomes crucial. Leveraging a topic-modeling approach, this paper distills the key themes of 27 journal articles. We included peer-reviewed journal articles written in English, with no time constraints on the search. A Google Scholar search, conducted up to 19 September 2023, yielded 27 journal articles. Through a topic-modeling approach, the identified topics encompassed optimizing patient healthcare through data-driven medicine, predictive modeling with data and algorithms, predicting diseases with deep learning of biomedical data, and machine learning in medicine. This review delves into specific applications of explainable artificial intelligence, emphasizing its role in fostering transparency, accountability, and trust within the healthcare domain. Our review highlights the necessity for further development and validation of explanation methods to advance precision healthcare delivery. © 2024 by the author.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>10.3390/jpm14030277</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>the role of explainability in creating trustworthy artificial intelligence for health care: a comprehensive survey of the terminology, design choices, and evaluation strategies</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Markus A.F.; Kors J.A.; Rijnbeek P.R.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Journal of Biomedical Informatics</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Artificial intelligence (AI) has huge potential to improve the health and well-being of people, but adoption in clinical practice is still limited. Lack of transparency is identified as one of the main barriers to implementation, as clinicians should be confident the AI system can be trusted. Explainable AI has the potential to overcome this issue and can be a step towards trustworthy AI. In this paper we review the recent literature to provide guidance to researchers and practitioners on the design of explainable AI systems for the health-care domain and contribute to formalization of the field of explainable AI. We argue the reason to demand explainability determines what should be explained as this determines the relative importance of the properties of explainability (i.e. interpretability and fidelity). Based on this, we propose a framework to guide the choice between classes of explainable AI methods (explainable modelling versus post-hoc explanation; model-based, attribution-based, or example-based explanations; global and local explanations). Furthermore, we find that quantitative evaluation metrics, which are important for objective standardized evaluation, are still lacking for some properties (e.g. clarity) and types of explanations (e.g. example-based methods). We conclude that explainable modelling can contribute to trustworthy AI, but the benefits of explainability still need to be proven in practice and complementary measures might be needed to create trustworthy AI in health care (e.g. reporting data quality, performing extensive (external) validation, and regulation). © 2020 The Authors</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>10.1016/j.jbi.2020.103655</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>towards explainability in automated medical code prediction from clinical records</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Uma K.; Francis S.; Sun W.; Moens M.-F.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Networks and Systems</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>The International Statistical Classification of Diseases and Related Health Problems (ICD) is a global standard, a diagnostic tool that is frequently used for endemic research, health management, and clinical diagnosis, and it plays a crucial role in providing shrewd medical treatment. Comparable statistics on the causes of mortality and morbidity across locations and throughout time have been based on the ICD. The traditional procedure of assigning codes is expensive, error-prone and time-consuming, and automated mapping of ICD codes is now a significant area of scholarly research. With the help of statistical modeling, rule-engines, conventional machine learning, and deep learning techniques like graph embedding, attention mechanisms, adversarial learning, and pre-trained language models (PLMs), this paper aims to analyze and document inferences on the evolution of clinical coding automation. We try to summarize with comparative performance analysis various approaches addressed towards codification of free-text clinical narratives on the publicly available Medical Information Mart. This study investigates whether clinicians and researchers could benefit from an adequate interpretation of model predictions from an Explainable Artificial Intelligence (XAI) perspective. Finally, the survey illustrates ICD coding and disease classification applications and its challenges, evaluation metrics, datasets, and directions towards automating explanatory medical code predictions. © The Author(s), under exclusive license to Springer Nature Switzerland AG 2024.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>10.1007/978-3-031-47718-8_40</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>transparency in medical arti¯cial intelligence systems</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Quakulinski L.; Koumpis A.; Beyan O.D.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>International Journal of Semantic Computing</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Many of the artificial intelligence (AI) systems used nowadays have a very high level of accuracy but fail to explain their decisions. This is critical, especially in sensitive areas such as medicine and the health area at large but also for applications of the law, finance etc., where explanations for certain decisions are needed and are often useful and valuable as the decision itself. This paper presents a review of four different methods for creating transparency in AI systems. It also suggests a list of criteria under which circumstances one should use which methods. © World Scientific Publishing Company.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>10.1142/S1793351X23630011</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>unbox the black-box for the medical explainable ai via multi-modal and multi-centre data fusion: a mini-review, two showcases and beyond</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Yang G.; Ye Q.; Xia J.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Information Fusion</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Explainable Artificial Intelligence (XAI) is an emerging research topic of machine learning aimed at unboxing how AI systems’ black-box choices are made. This research field inspects the measures and models involved in decision-making and seeks solutions to explain them explicitly. Many of the machine learning algorithms cannot manifest how and why a decision has been cast. This is particularly true of the most popular deep neural network approaches currently in use. Consequently, our confidence in AI systems can be hindered by the lack of explainability in these black-box models. The XAI becomes more and more crucial for deep learning powered applications, especially for medical and healthcare studies, although in general these deep neural networks can return an arresting dividend in performance. The insufficient explainability and transparency in most existing AI systems can be one of the major reasons that successful implementation and integration of AI tools into routine clinical practice are uncommon. In this study, we first surveyed the current progress of XAI and in particular its advances in healthcare applications. We then introduced our solutions for XAI leveraging multi-modal and multi-centre data fusion, and subsequently validated in two showcases following real clinical scenarios. Comprehensive quantitative and qualitative analyses can prove the efficacy of our proposed XAI solutions, from which we can envisage successful applications in a broader range of clinical questions. © 2021 The Authors</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>10.1016/j.inffus.2021.07.016</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>unboxing industry-standard ai models for male fertility prediction with shap</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GhoshRoy D.; Alvi P.A.; Santosh K.C.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Healthcare (Switzerland)</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Infertility is a social stigma for individuals, and male factors cause approximately 30% of infertility. Despite this, male infertility is underrecognized and underrepresented as a disease. According to the World Health Organization (WHO), changes in lifestyle and environmental factors are the prime reasons for the declining rate of male fertility. Artificial intelligence (AI)/machine learning (ML) models have become an effective solution for early fertility detection. Seven industry-standard ML models are used: support vector machine, random forest (RF), decision tree, logistic regression, naïve bayes, adaboost, and multi-layer perception to detect male fertility. Shapley additive explanations (SHAP) are vital tools that examine the feature’s impact on each model’s decision making. On these, we perform a comprehensive comparative study to identify good and poor classification models. While dealing with the all-above-mentioned models, the RF model achieves an optimal accuracy and area under curve (AUC) of 90.47% and 99.98%, respectively, by considering five-fold cross-validation (CV) with the balanced dataset. Furthermore, we provide the SHAP explanations of existing models that attain good and poor performance. The findings of this study show that decision making (based on ML models) with SHAP provides thorough explanations for detecting male fertility, as well as a reference for clinicians for further treatment planning. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>10.3390/healthcare11070929</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>understanding the effect of counterfactual explanations on trust and reliance on ai for human-ai collaborative clinical decision making</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Lee M.H.; Chew C.J.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Artificial intelligence (AI) is increasingly being considered to assist human decision-making in high-stake domains (e.g. health). However, researchers have discussed an issue that humans can over-rely on wrong suggestions of the AI model instead of achieving human AI complementary performance. In this work, we utilized salient feature explanations along with what-if, counterfactual explanations to make humans review AI suggestions more analytically to reduce overreliance on AI and explored the effect of these explanations on trust and reliance on AI during clinical decision-making. We conducted an experiment with seven therapists and ten laypersons on the task of assessing post-stroke survivors' quality of motion, and analyzed their performance, agreement level on the task, and reliance on AI without and with two types of AI explanations. Our results showed that the AI model with both salient features and counterfactual explanations assisted therapists and laypersons to improve their performance and agreement level on the task when 'right' AI outputs are presented. While both therapists and laypersons over-relied on 'wrong' AI outputs, counterfactual explanations assisted both therapists and laypersons to reduce their over-reliance on 'wrong' AI outputs by 21% compared to salient feature explanations. Specifically, laypersons had higher performance degrades by 18.0 f1-score with salient feature explanations and 14.0 f1-score with counterfactual explanations than therapists with performance degrades of 8.6 and 2.8 f1-scores respectively. Our work discusses the potential of counterfactual explanations to better estimate the accuracy of an AI model and reduce over-reliance on 'wrong' AI outputs and implications for improving human-AI collaborative decision-making. © 2023 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>10.1145/3610218</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>untangling explainable ai in applicative domains: taxonomy, tools, and open challenges</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Chaudhary S.; Joshi P.; Bhattacharya P.; Prasad V.K.; Shah R.; Tanwar S.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Networks and Systems</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Recently, a paradigm shift is observed toward Industry 5.0, where tasks (processes) are automated at massive scales. This shift has initiated modern developments in artificial intelligence (AI) to support a plethora of applications like manufacturing, health care, vehicular net- works, and others. However, owing to the black-box nature of AI models, the research has shifted toward the proposal of novel techniques that aim toward the explainability and validity of these AI models. Thus, explainable AI (XAI) has become a norm in modern applicative domains, and the study of its frameworks and tools has become the buzzword among researchers. Thus, the paper intends to present the key concepts of XAI and aims at improving the model transparency. The survey systematically untangles the key concepts of XAI and presents a solution taxonomy in different applications. Modern XAI techniques are classified as self-explanatory, visual-based-model-agnostic, global surrogate, and local surrogate-model-agnostic. We also cover the tools and frameworks of XAI and discuss the open issues and challenges in practical realization. Thus, the survey intends to arm AI practitioners to design optimal solutions to realize XAI in practical use-case setups. © 2023, The Author(s), under exclusive license to Springer Nature Singapore Pte Ltd.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>10.1007/978-981-99-1479-1_63</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>user-centric explainability in healthcare: a knowledge-level perspective of informed machine learning</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Oberste L.; Heinzl A.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Explaining increasingly complex machine learning will remain crucial to cope with risks, regulations, responsibilities, and human support in healthcare. However, extant explainable systems mostly provide explanations that mismatch clinical users' conceptions and fail their expectations to leverage validated and clinically relevant information. A key to more user-centric and satisfying explanations can be seen in combining data-driven and knowledge-based systems, i.e., to utilize prior knowledge jointly with the patterns learned from data. We conduct a structured review of knowledge-informed machine learning in healthcare. In this article, we build on a framework to characterize user knowledge and prior knowledge embodied in explanations. Specifically, we explicate the types and contexts of knowledge to examine the fit between knowledge-informed approaches and users. Our results highlight that knowledge-informed machine learning is a promising paradigm to enrich former data-driven systems, yielding explanations that can increase formal understanding, convey useful medical knowledge, and are more intuitive. Although complying with medical conception, it still needs to be investigated whether knowledge-informed explanations increase medical user acceptance and trust in clinical machine learning-based information systems. © 2020 IEEE.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>10.1109/TAI.2022.3227225</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>using iterative random forest to find geospatial environmental and sociodemographic predictors of suicide attempts</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Pavicic M.; Walker A.M.; Sullivan K.A.; Lagergren J.; Cliff A.; Romero J.; Streich J.; Garvin M.R.; Pestian J.; McMahon B.; Oslin D.W.; Beckham J.C.; Kimbrel N.A.; Jacobson D.A.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Frontiers in Psychiatry</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Introduction: Despite a recent global decrease in suicide rates, death by suicide has increased in the United States. It is therefore imperative to identify the risk factors associated with suicide attempts to combat this growing epidemic. In this study, we aim to identify potential risk factors of suicide attempt using geospatial features in an Artificial intelligence framework. Methods: We use iterative Random Forest, an explainable artificial intelligence method, to predict suicide attempts using data from the Million Veteran Program. This cohort incorporated 405,540 patients with 391,409 controls and 14,131 attempts. Our predictive model incorporates multiple climatic features at ZIP-code-level geospatial resolution. We additionally consider demographic features from the American Community Survey as well as the number of firearms and alcohol vendors per 10,000 people to assess the contributions of proximal environment, access to means, and restraint decrease to suicide attempts. In total 1,784 features were included in the predictive model. Results: Our results show that geographic areas with higher concentrations of married males living with spouses are predictive of lower rates of suicide attempts, whereas geographic areas where males are more likely to live alone and to rent housing are predictive of higher rates of suicide attempts. We also identified climatic features that were associated with suicide attempt risk by age group. Additionally, we observed that firearms and alcohol vendors were associated with increased risk for suicide attempts irrespective of the age group examined, but that their effects were small in comparison to the top features. Discussion: Taken together, our findings highlight the importance of social determinants and environmental factors in understanding suicide risk among veterans. 2023, At least a portion of this work is authored by David W. Oslin, Jean C. Beckham and Nathan A. Kimbrel on behalf of the U.S. Government and as regards Dr Oslin, Dr. Beckham, Dr. Kimbrel and the U.S. Government, is not subject to copyright protection in the United States. Foreign and other copyrights may apply.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>10.3389/fpsyt.2023.1178633</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>vbridge: connecting the dots between features and data to explain healthcare models</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Cheng F.; Liu D.; Du F.; Lin Y.; Zytek A.; Li H.; Qu H.; Veeramachaneni K.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>IEEE Transactions on Visualization and Computer Graphics</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Machine learning (ML) is increasingly applied to Electronic Health Records (EHRs) to solve clinical prediction tasks. Although many ML models perform promisingly, issues with model transparency and interpretability limit their adoption in clinical practice. Directly using existing explainable ML techniques in clinical settings can be challenging. Through literature surveys and collaborations with six clinicians with an average of 17 years of clinical experience, we identified three key challenges, including clinicians' unfamiliarity with ML features, lack of contextual information, and the need for cohort-level evidence. Following an iterative design process, we further designed and developed VBridge, a visual analytics tool that seamlessly incorporates ML explanations into clinicians' decision-making workflow. The system includes a novel hierarchical display of contribution-based feature explanations and enriched interactions that connect the dots between ML features, explanations, and data. We demonstrated the effectiveness of VBridge through two case studies and expert interviews with four clinicians, showing that visually associating model explanations with patients' situational records can help clinicians better interpret and use model predictions when making clinician decisions. We further derived a list of design implications for developing future explainable ML tools to support clinical decision-making.  © 1995-2012 IEEE.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>10.1109/TVCG.2021.3114836</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>visualizing research on explainable artificial intelligence for medical and healthcare</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Ali S.; Imran A.S.; Kastrati Z.; Daudpota S.M.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2023 4th International Conference on Computing, Mathematics and Engineering Technologies: Sustainable Technologies for Socio-Economic Development, iCoMET 2023</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Understanding complex machine learning and artificial intelligence models have always been challenging because these models are black-box, and often we don't know what information models rely upon to infer. Explainable Artificial Intelligence (XAI) has emerged as a new exciting field to explain and understand these machine learning models as humans can understand and improve them. In the past few years, there have been numerous research articles on explainable artificial intelligence for medical and healthcare. 1687 documents are being studied and analysed using bibliometric methods in this work. There are certain systematic reviews on the same topic, but this study is the first of its kind to use a quantitative method to analyze a large number of publications. The results of this study show that the research in this field took pace in 2011, and there have been quite many publications in the following years. We have also identified top-cited journals and articles. Through thematic analysis, we have found some important thematic areas of research in the field of XAI for medical and healthcare. The findings showed that the USA is the global leader in XAI research, followed by China and Canada at second and third place, respectively.  © 2023 IEEE.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>10.1109/iCoMET57998.2023.10099343</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>where developmental toxicity meets explainable artificial intelligence: state-of-the-art and perspectives</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Vittoria Togo M.; Mastrolorito F.; Orfino A.; Graps E.A.; Tondo A.R.; Altomare C.D.; Ciriaco F.; Trisciuzzi D.; Nicolotti O.; Amoroso N.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Expert Opinion on Drug Metabolism and Toxicology</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Introduction: The application of Artificial Intelligence (AI) to predictive toxicology is rapidly increasing, particularly aiming to develop non-testing methods that effectively address ethical concerns and reduce economic costs. In this context, Developmental Toxicity (Dev Tox) stands as a key human health endpoint, especially significant for safeguarding maternal and child well-being. Areas covered: This review outlines the existing methods employed in Dev Tox predictions and underscores the benefits of utilizing New Approach Methodologies (NAMs), specifically focusing on eXplainable Artificial Intelligence (XAI), which proves highly efficient in constructing reliable and transparent models aligned with recommendations from international regulatory bodies. Expert opinion: The limited availability of high-quality data and the absence of dependable Dev Tox methodologies render XAI an appealing avenue for systematically developing interpretable and transparent models, which hold immense potential for both scientific evaluations and regulatory decision-making. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>10.1080/17425255.2023.2298827</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Article in press</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Scopus + Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>xaiot - the future of wearable internet of things</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Krzysiak, R; Nguyen, S; Chen, YQ</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2022 18TH IEEE/ASME INTERNATIONAL CONFERENCE ON MECHATRONIC AND EMBEDDED SYSTEMS AND APPLICATIONS (MESA 2022)</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>The addition of Machine Learning and other Artificial Intelligent (AI) algorithms has expanded the capabilities of the Internet of Things (IoT) framework. However, the Artificial Internet of Things (AIoT), has also brought forward many issues with the combination, mainly lack of explanations and transparency. This lack of explanations of what AI models are doing is problematic in many fields, especially in the medical field. Explainable Artificial Intelligence (XAI) allows users to be given more in depth knowledge with the background processes of the model prediction. Enabling XAI into the IoT framework would develop a system that would not only capture Big Data more effectively, but also allow the system to be more transparent and explainable, causing wider adoption of the framework. This review focuses on current work done in AIoT and how it can be vastly improved with XAIoT. We propose an Explainable Artificial Intelligent Internet of Things (XAIoT) framework for monitoring physiological health using a smart watch.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>10.1109/MESA55290.2022.10004460</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Web of Science</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>xaiot-the future of wearable internet of things</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Krzysiak R.; Nguyen S.; Chen Y.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>MESA 2022 - 18th IEEE/ASME International Conference on Mechatronic and Embedded Systems and Applications, Proceedings</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>The addition of Machine Learning and other Artificial Intelligent (AI) algorithms has expanded the capabilities of the Internet of Things (IoT) framework. However, the Artificial Internet of Things (AIoT), has also brought forward many issues with the combination, mainly lack of explanations and transparency. This lack of explanations of what AI models are doing is problematic in many fields, especially in the medical field. Explainable Artificial Intelligence (XAI) allows users to be given more in depth knowledge with the background processes of the model prediction. Enabling XAI into the IoT framework would develop a system that would not only capture Big Data more effectively, but also allow the system to be more transparent and explainable, causing wider adoption of the framework. This review focuses on current work done in AIoT and how it can be vastly improved with XAIoT. We propose an Explainable Artificial Intelligent Internet of Things (XAIoT) framework for monitoring physiological health using a smart watch.  © 2022 IEEE.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>10.1109/MESA55290.2022.10004460</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Scopus</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
